--- a/data/davis matches/davis_2018.xlsx
+++ b/data/davis matches/davis_2018.xlsx
@@ -10972,21 +10972,9 @@
         </is>
       </c>
       <c r="T117" t="inlineStr"/>
-      <c r="U117" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="V117" t="inlineStr">
-        <is>
-          <t>20 Jan 1998</t>
-        </is>
-      </c>
-      <c r="W117" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+      <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr"/>
+      <c r="W117" t="inlineStr"/>
       <c r="X117" t="inlineStr"/>
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr"/>
@@ -11524,21 +11512,9 @@
         </is>
       </c>
       <c r="T123" t="inlineStr"/>
-      <c r="U123" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="V123" t="inlineStr">
-        <is>
-          <t>20 Jan 1998</t>
-        </is>
-      </c>
-      <c r="W123" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+      <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
       <c r="X123" t="inlineStr"/>
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr"/>

--- a/data/davis matches/davis_2018.xlsx
+++ b/data/davis matches/davis_2018.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB131"/>
+  <dimension ref="A1:AB123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,7 +653,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>411</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr"/>
@@ -736,12 +736,12 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>718</t>
+          <t>716</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>912</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr"/>
@@ -826,7 +826,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>136</t>
         </is>
       </c>
       <c r="X4" t="inlineStr"/>
@@ -917,7 +917,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>58</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr"/>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>132</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>58</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1132,7 +1132,7 @@
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="AB7" t="n">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>411</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr"/>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>58</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr"/>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>862</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr"/>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>840</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr"/>
@@ -1777,7 +1777,7 @@
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr">
         <is>
-          <t>337=</t>
+          <t>338=</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>286</t>
         </is>
       </c>
       <c r="AB14" t="n">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>840</t>
         </is>
       </c>
       <c r="AB15" t="n">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>840</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr"/>
@@ -2248,12 +2248,12 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>283</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>808=</t>
+          <t>813=</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr"/>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>213</t>
         </is>
       </c>
       <c r="X22" t="inlineStr"/>
@@ -2616,7 +2616,7 @@
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AB23" t="n">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>342</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr"/>
@@ -3152,12 +3152,12 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr"/>
@@ -3266,7 +3266,7 @@
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AB30" t="n">
@@ -3371,12 +3371,12 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>131</t>
         </is>
       </c>
       <c r="AB31" t="n">
@@ -3638,12 +3638,12 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>181</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>514</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr"/>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>827</t>
         </is>
       </c>
       <c r="X35" t="inlineStr"/>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>888</t>
+          <t>887</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>1972=</t>
+          <t>1992=</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr"/>
@@ -4016,7 +4016,7 @@
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>57</t>
         </is>
       </c>
       <c r="AB38" t="n">
@@ -4108,12 +4108,12 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>168</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>279</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -4284,12 +4284,12 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>168</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>279</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr"/>
@@ -4376,12 +4376,12 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>181</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>514</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr"/>
@@ -4468,12 +4468,12 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>888</t>
+          <t>887</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>1972=</t>
+          <t>1992=</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr"/>
@@ -4556,7 +4556,7 @@
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>98</t>
         </is>
       </c>
       <c r="X44" t="inlineStr"/>
@@ -4640,12 +4640,12 @@
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>612</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>1387=</t>
+          <t>1385=</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr"/>
@@ -4894,7 +4894,7 @@
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>1083</t>
+          <t>1082</t>
         </is>
       </c>
       <c r="X48" t="inlineStr"/>
@@ -4999,12 +4999,12 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>612</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>1387=</t>
+          <t>1385=</t>
         </is>
       </c>
       <c r="AB49" t="n">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>98</t>
         </is>
       </c>
       <c r="X50" t="inlineStr"/>
@@ -5183,17 +5183,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sportski Centar Cair, Nis, Serbia</t>
+          <t xml:space="preserve"> Country Hall du Sart-Tilman, Liège, Belgium</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
+          <t xml:space="preserve"> Hard - Acrylic, Indoor</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson Australian Open</t>
+          <t xml:space="preserve"> Tecnifibre X-One</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -5202,23 +5202,23 @@
         </is>
       </c>
       <c r="F52" t="n">
+        <v>6</v>
+      </c>
+      <c r="G52" t="n">
+        <v>4</v>
+      </c>
+      <c r="H52" t="n">
         <v>7</v>
       </c>
-      <c r="G52" t="n">
-        <v>2</v>
-      </c>
-      <c r="H52" t="n">
-        <v>5</v>
-      </c>
       <c r="I52" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="n">
         <v>7</v>
       </c>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
@@ -5231,33 +5231,29 @@
           <t>MATCH 1</t>
         </is>
       </c>
-      <c r="R52" t="inlineStr"/>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium Fast</t>
+        </is>
+      </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>Laslo Djere</t>
+          <t>Ruben Bemelmans</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>02 Jun 1995</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="X52" t="inlineStr">
-        <is>
-          <t>544</t>
-        </is>
-      </c>
+          <t>14 Jan 1988</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
@@ -5273,17 +5269,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sportski Centar Cair, Nis, Serbia</t>
+          <t xml:space="preserve"> Country Hall du Sart-Tilman, Liège, Belgium</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
+          <t xml:space="preserve"> Hard - Acrylic, Indoor</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson Australian Open</t>
+          <t xml:space="preserve"> Tecnifibre X-One</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -5292,23 +5288,23 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G53" t="n">
         <v>6</v>
       </c>
       <c r="H53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I53" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>4</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
@@ -5321,25 +5317,37 @@
           <t>MATCH 1</t>
         </is>
       </c>
-      <c r="R53" t="inlineStr"/>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium Fast</t>
+        </is>
+      </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>Sam Querrey</t>
+          <t>Marton Fucsovics</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>HUNGARY</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>07 Oct 1987</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
+          <t>08 Feb 1992</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>541=</t>
+        </is>
+      </c>
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr"/>
@@ -5355,17 +5363,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sportski Centar Cair, Nis, Serbia</t>
+          <t xml:space="preserve"> Country Hall du Sart-Tilman, Liège, Belgium</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
+          <t xml:space="preserve"> Hard - Acrylic, Indoor</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson Australian Open</t>
+          <t xml:space="preserve"> Tecnifibre X-One</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -5374,29 +5382,21 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G54" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
-      </c>
-      <c r="I54" t="n">
-        <v>6</v>
-      </c>
-      <c r="J54" t="n">
-        <v>6</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>9</v>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
-      <c r="O54" t="n">
-        <v>4</v>
-      </c>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
           <t>PLAYED &amp; COMPLETED</t>
@@ -5407,31 +5407,35 @@
           <t>MATCH 2</t>
         </is>
       </c>
-      <c r="R54" t="inlineStr"/>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium Fast</t>
+        </is>
+      </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>Dusan Lajovic</t>
+          <t>David Goffin</t>
         </is>
       </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>30 Jun 1990</t>
+          <t>07 Dec 1990</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>78</t>
         </is>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>551=</t>
+          <t>864=</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr"/>
@@ -5449,17 +5453,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sportski Centar Cair, Nis, Serbia</t>
+          <t xml:space="preserve"> Country Hall du Sart-Tilman, Liège, Belgium</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
+          <t xml:space="preserve"> Hard - Acrylic, Indoor</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson Australian Open</t>
+          <t xml:space="preserve"> Tecnifibre X-One</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -5468,29 +5472,21 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G55" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H55" t="n">
-        <v>6</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3</v>
-      </c>
-      <c r="J55" t="n">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>7</v>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
-      <c r="O55" t="n">
-        <v>7</v>
-      </c>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
           <t>PLAYED &amp; COMPLETED</t>
@@ -5501,26 +5497,30 @@
           <t>MATCH 2</t>
         </is>
       </c>
-      <c r="R55" t="inlineStr"/>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium Fast</t>
+        </is>
+      </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>John Isner</t>
+          <t>Attila Balazs</t>
         </is>
       </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>HUNGARY</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>26 Apr 1985</t>
+          <t>27 Sep 1988</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>1079=</t>
         </is>
       </c>
       <c r="X55" t="inlineStr"/>
@@ -5539,17 +5539,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sportski Centar Cair, Nis, Serbia</t>
+          <t xml:space="preserve"> Country Hall du Sart-Tilman, Liège, Belgium</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
+          <t xml:space="preserve"> Hard - Acrylic, Indoor</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson Australian Open</t>
+          <t xml:space="preserve"> Tecnifibre X-One</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -5558,23 +5558,25 @@
         </is>
       </c>
       <c r="F56" t="n">
+        <v>3</v>
+      </c>
+      <c r="G56" t="n">
+        <v>4</v>
+      </c>
+      <c r="H56" t="n">
         <v>7</v>
       </c>
-      <c r="G56" t="n">
-        <v>2</v>
-      </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
+        <v>6</v>
+      </c>
+      <c r="J56" t="n">
         <v>5</v>
       </c>
-      <c r="I56" t="n">
-        <v>4</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
         <v>7</v>
       </c>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
@@ -5587,48 +5589,44 @@
           <t>MATCH 3</t>
         </is>
       </c>
-      <c r="R56" t="inlineStr"/>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium Fast</t>
+        </is>
+      </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>Nikola Milojevic</t>
+          <t>Ruben Bemelmans</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>Miljan Zekic</t>
+          <t>Joris De Loore</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>19 Jun 1995</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>1097=</t>
-        </is>
-      </c>
+          <t>14 Jan 1988</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>12 Jul 1988</t>
+          <t>21 Apr 1993</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>636</t>
-        </is>
-      </c>
-      <c r="AA56" t="inlineStr">
-        <is>
-          <t>1489=</t>
-        </is>
-      </c>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="n">
         <v>2018</v>
       </c>
@@ -5641,17 +5639,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sportski Centar Cair, Nis, Serbia</t>
+          <t xml:space="preserve"> Country Hall du Sart-Tilman, Liège, Belgium</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
+          <t xml:space="preserve"> Hard - Acrylic, Indoor</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson Australian Open</t>
+          <t xml:space="preserve"> Tecnifibre X-One</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -5666,17 +5664,19 @@
         <v>6</v>
       </c>
       <c r="H57" t="n">
+        <v>6</v>
+      </c>
+      <c r="I57" t="n">
+        <v>4</v>
+      </c>
+      <c r="J57" t="n">
         <v>7</v>
       </c>
-      <c r="I57" t="n">
-        <v>6</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>3</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
@@ -5689,40 +5689,52 @@
           <t>MATCH 3</t>
         </is>
       </c>
-      <c r="R57" t="inlineStr"/>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium Fast</t>
+        </is>
+      </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>Ryan Harrison</t>
+          <t>Attila Balazs</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>Steve Johnson</t>
+          <t>Marton Fucsovics</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>HUNGARY</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>07 May 1992</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr"/>
+          <t>27 Sep 1988</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>1079=</t>
+        </is>
+      </c>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>24 Dec 1989</t>
+          <t>08 Feb 1992</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>625</t>
-        </is>
-      </c>
-      <c r="AA57" t="inlineStr"/>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>541=</t>
+        </is>
+      </c>
       <c r="AB57" t="n">
         <v>2018</v>
       </c>
@@ -5735,17 +5747,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sportski Centar Cair, Nis, Serbia</t>
+          <t xml:space="preserve"> Country Hall du Sart-Tilman, Liège, Belgium</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
+          <t xml:space="preserve"> Hard - Acrylic, Indoor</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson Australian Open</t>
+          <t xml:space="preserve"> Tecnifibre X-One</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -5754,13 +5766,17 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G58" t="n">
-        <v>7</v>
-      </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+      <c r="I58" t="n">
+        <v>6</v>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
@@ -5777,25 +5793,37 @@
           <t>MATCH 4</t>
         </is>
       </c>
-      <c r="R58" t="inlineStr"/>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium Fast</t>
+        </is>
+      </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>Pedja Krstin</t>
+          <t>David Goffin</t>
         </is>
       </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>03 Sep 1994</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
+          <t>07 Dec 1990</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>864=</t>
+        </is>
+      </c>
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="inlineStr"/>
@@ -5811,17 +5839,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sportski Centar Cair, Nis, Serbia</t>
+          <t xml:space="preserve"> Country Hall du Sart-Tilman, Liège, Belgium</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
+          <t xml:space="preserve"> Hard - Acrylic, Indoor</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson Australian Open</t>
+          <t xml:space="preserve"> Tecnifibre X-One</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -5830,13 +5858,17 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G59" t="n">
-        <v>5</v>
-      </c>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2</v>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
@@ -5853,29 +5885,37 @@
           <t>MATCH 4</t>
         </is>
       </c>
-      <c r="R59" t="inlineStr"/>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium Fast</t>
+        </is>
+      </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>Steve Johnson</t>
+          <t>Marton Fucsovics</t>
         </is>
       </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>HUNGARY</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>24 Dec 1989</t>
+          <t>08 Feb 1992</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>625</t>
-        </is>
-      </c>
-      <c r="X59" t="inlineStr"/>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>541=</t>
+        </is>
+      </c>
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="inlineStr"/>
@@ -5910,23 +5950,19 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
-      </c>
-      <c r="H60" t="n">
-        <v>7</v>
-      </c>
-      <c r="I60" t="n">
-        <v>6</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>7</v>
-      </c>
+      <c r="L60" t="n">
+        <v>3</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
@@ -5936,7 +5972,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 5</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -5946,7 +5982,7 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>Ruben Bemelmans</t>
+          <t>Julien Cagnina</t>
         </is>
       </c>
       <c r="T60" t="inlineStr"/>
@@ -5957,7 +5993,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>14 Jan 1988</t>
+          <t>04 Jun 1994</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -5996,23 +6032,19 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G61" t="n">
-        <v>6</v>
-      </c>
-      <c r="H61" t="n">
-        <v>6</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>5</v>
-      </c>
+      <c r="L61" t="n">
+        <v>7</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
@@ -6022,7 +6054,7 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 5</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -6032,7 +6064,7 @@
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>Marton Fucsovics</t>
+          <t>Zsombor Piros</t>
         </is>
       </c>
       <c r="T61" t="inlineStr"/>
@@ -6043,17 +6075,17 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>08 Feb 1992</t>
+          <t>13 Oct 1999</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>212</t>
         </is>
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>545=</t>
+          <t>1371=</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr"/>
@@ -6066,40 +6098,44 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02 Feb - 04 Feb 2018</t>
+          <t xml:space="preserve"> 06 Apr - 08 Apr 2018</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Country Hall du Sart-Tilman, Liège, Belgium</t>
+          <t xml:space="preserve"> Valletta Cambiaso ASD, Genoa, Italy</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Acrylic, Indoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tecnifibre X-One</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>WORLD GROUP  1ST ROUND</t>
+          <t>WORLD GROUP  QUARTERFINAL</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G62" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
         <v>6</v>
       </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>6</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
@@ -6112,40 +6148,28 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium Fast</t>
-        </is>
-      </c>
+          <t>MATCH 1</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr">
         <is>
-          <t>David Goffin</t>
+          <t>Andreas Seppi</t>
         </is>
       </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>07 Dec 1990</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="X62" t="inlineStr">
-        <is>
-          <t>861=</t>
-        </is>
-      </c>
+          <t>21 Feb 1984</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr"/>
@@ -6156,40 +6180,44 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02 Feb - 04 Feb 2018</t>
+          <t xml:space="preserve"> 06 Apr - 08 Apr 2018</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Country Hall du Sart-Tilman, Liège, Belgium</t>
+          <t xml:space="preserve"> Valletta Cambiaso ASD, Genoa, Italy</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Acrylic, Indoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tecnifibre X-One</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>WORLD GROUP  1ST ROUND</t>
+          <t>WORLD GROUP  QUARTERFINAL</t>
         </is>
       </c>
       <c r="F63" t="n">
+        <v>6</v>
+      </c>
+      <c r="G63" t="n">
+        <v>6</v>
+      </c>
+      <c r="H63" t="n">
         <v>4</v>
       </c>
-      <c r="G63" t="n">
-        <v>4</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>3</v>
+      </c>
+      <c r="J63" t="n">
+        <v>6</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
@@ -6202,36 +6230,36 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium Fast</t>
-        </is>
-      </c>
+          <t>MATCH 1</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr">
         <is>
-          <t>Attila Balazs</t>
+          <t>Lucas Pouille</t>
         </is>
       </c>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>HUNGARY</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>27 Sep 1988</t>
+          <t>23 Feb 1994</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>1080=</t>
-        </is>
-      </c>
-      <c r="X63" t="inlineStr"/>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr"/>
       <c r="AA63" t="inlineStr"/>
@@ -6242,49 +6270,47 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02 Feb - 04 Feb 2018</t>
+          <t xml:space="preserve"> 06 Apr - 08 Apr 2018</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Country Hall du Sart-Tilman, Liège, Belgium</t>
+          <t xml:space="preserve"> Valletta Cambiaso ASD, Genoa, Italy</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Acrylic, Indoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tecnifibre X-One</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>WORLD GROUP  1ST ROUND</t>
+          <t>WORLD GROUP  QUARTERFINAL</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G64" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H64" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I64" t="n">
         <v>6</v>
       </c>
-      <c r="J64" t="n">
-        <v>5</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>6</v>
+      </c>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>7</v>
-      </c>
+      <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
@@ -6294,46 +6320,38 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium Fast</t>
-        </is>
-      </c>
+          <t>MATCH 2</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr">
         <is>
-          <t>Ruben Bemelmans</t>
-        </is>
-      </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>Joris De Loore</t>
-        </is>
-      </c>
+          <t>Fabio Fognini</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>14 Jan 1988</t>
-        </is>
-      </c>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr">
-        <is>
-          <t>21 Apr 1993</t>
-        </is>
-      </c>
-      <c r="Z64" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
+          <t>24 May 1987</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>840</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="n">
         <v>2018</v>
@@ -6342,49 +6360,47 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02 Feb - 04 Feb 2018</t>
+          <t xml:space="preserve"> 06 Apr - 08 Apr 2018</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Country Hall du Sart-Tilman, Liège, Belgium</t>
+          <t xml:space="preserve"> Valletta Cambiaso ASD, Genoa, Italy</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Acrylic, Indoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tecnifibre X-One</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>WORLD GROUP  1ST ROUND</t>
+          <t>WORLD GROUP  QUARTERFINAL</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G65" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H65" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>4</v>
-      </c>
-      <c r="J65" t="n">
-        <v>7</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>8</v>
+      </c>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>2</v>
-      </c>
+      <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
@@ -6394,55 +6410,31 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium Fast</t>
-        </is>
-      </c>
+          <t>MATCH 2</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr">
         <is>
-          <t>Attila Balazs</t>
-        </is>
-      </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>Marton Fucsovics</t>
-        </is>
-      </c>
+          <t>Jeremy Chardy</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>HUNGARY</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>27 Sep 1988</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr">
-        <is>
-          <t>1080=</t>
-        </is>
-      </c>
+          <t>12 Feb 1987</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr">
-        <is>
-          <t>08 Feb 1992</t>
-        </is>
-      </c>
-      <c r="Z65" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="AA65" t="inlineStr">
-        <is>
-          <t>545=</t>
-        </is>
-      </c>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="n">
         <v>2018</v>
       </c>
@@ -6450,41 +6442,39 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02 Feb - 04 Feb 2018</t>
+          <t xml:space="preserve"> 06 Apr - 08 Apr 2018</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Country Hall du Sart-Tilman, Liège, Belgium</t>
+          <t xml:space="preserve"> Valletta Cambiaso ASD, Genoa, Italy</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Acrylic, Indoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tecnifibre X-One</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>WORLD GROUP  1ST ROUND</t>
+          <t>WORLD GROUP  QUARTERFINAL</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G66" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
-      </c>
-      <c r="I66" t="n">
-        <v>6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
@@ -6498,43 +6488,51 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>MATCH 4</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium Fast</t>
-        </is>
-      </c>
+          <t>MATCH 3</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr">
         <is>
-          <t>David Goffin</t>
-        </is>
-      </c>
-      <c r="T66" t="inlineStr"/>
+          <t>Simone Bolelli</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>Fabio Fognini</t>
+        </is>
+      </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>07 Dec 1990</t>
-        </is>
-      </c>
-      <c r="W66" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+          <t>08 Oct 1985</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr">
         <is>
-          <t>861=</t>
-        </is>
-      </c>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
-      <c r="AA66" t="inlineStr"/>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>24 May 1987</t>
+        </is>
+      </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>840</t>
+        </is>
+      </c>
       <c r="AB66" t="n">
         <v>2018</v>
       </c>
@@ -6542,41 +6540,39 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02 Feb - 04 Feb 2018</t>
+          <t xml:space="preserve"> 06 Apr - 08 Apr 2018</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Country Hall du Sart-Tilman, Liège, Belgium</t>
+          <t xml:space="preserve"> Valletta Cambiaso ASD, Genoa, Italy</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Acrylic, Indoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tecnifibre X-One</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>WORLD GROUP  1ST ROUND</t>
+          <t>WORLD GROUP  QUARTERFINAL</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G67" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H67" t="n">
         <v>6</v>
       </c>
-      <c r="I67" t="n">
-        <v>2</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
@@ -6590,43 +6586,51 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>MATCH 4</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium Fast</t>
-        </is>
-      </c>
+          <t>MATCH 3</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr">
         <is>
-          <t>Marton Fucsovics</t>
-        </is>
-      </c>
-      <c r="T67" t="inlineStr"/>
+          <t>Pierre-Hugues Herbert</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>Nicolas Mahut</t>
+        </is>
+      </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>HUNGARY</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>08 Feb 1992</t>
+          <t>18 Mar 1991</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>132</t>
         </is>
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>545=</t>
-        </is>
-      </c>
-      <c r="Y67" t="inlineStr"/>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>21 Jan 1982</t>
+        </is>
+      </c>
       <c r="Z67" t="inlineStr"/>
-      <c r="AA67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="AB67" t="n">
         <v>2018</v>
       </c>
@@ -6634,43 +6638,47 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02 Feb - 04 Feb 2018</t>
+          <t xml:space="preserve"> 06 Apr - 08 Apr 2018</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Country Hall du Sart-Tilman, Liège, Belgium</t>
+          <t xml:space="preserve"> Valletta Cambiaso ASD, Genoa, Italy</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Acrylic, Indoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tecnifibre X-One</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>WORLD GROUP  1ST ROUND</t>
+          <t>WORLD GROUP  QUARTERFINAL</t>
         </is>
       </c>
       <c r="F68" t="n">
+        <v>6</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+      <c r="I68" t="n">
         <v>3</v>
       </c>
-      <c r="G68" t="n">
-        <v>6</v>
-      </c>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="n">
         <v>3</v>
       </c>
-      <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
@@ -6680,32 +6688,36 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>MATCH 5</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium Fast</t>
-        </is>
-      </c>
+          <t>MATCH 4</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr">
         <is>
-          <t>Julien Cagnina</t>
+          <t>Fabio Fognini</t>
         </is>
       </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>04 Jun 1994</t>
-        </is>
-      </c>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
+          <t>24 May 1987</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>840</t>
+        </is>
+      </c>
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="inlineStr"/>
@@ -6716,43 +6728,47 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02 Feb - 04 Feb 2018</t>
+          <t xml:space="preserve"> 06 Apr - 08 Apr 2018</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Country Hall du Sart-Tilman, Liège, Belgium</t>
+          <t xml:space="preserve"> Valletta Cambiaso ASD, Genoa, Italy</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Acrylic, Indoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tecnifibre X-One</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>WORLD GROUP  1ST ROUND</t>
+          <t>WORLD GROUP  QUARTERFINAL</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G69" t="n">
+        <v>6</v>
+      </c>
+      <c r="H69" t="n">
         <v>7</v>
       </c>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>6</v>
+      </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="n">
         <v>7</v>
       </c>
-      <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
@@ -6762,38 +6778,34 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>MATCH 5</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium Fast</t>
-        </is>
-      </c>
+          <t>MATCH 4</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr">
         <is>
-          <t>Zsombor Piros</t>
+          <t>Lucas Pouille</t>
         </is>
       </c>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>HUNGARY</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>13 Oct 1999</t>
+          <t>23 Feb 1994</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>147</t>
         </is>
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>1371=</t>
+          <t>291</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr"/>
@@ -6811,7 +6823,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valletta Cambiaso ASD, Genoa, Italy</t>
+          <t xml:space="preserve"> Plaza de Toros de Valencia, Valencia, Spain</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -6821,7 +6833,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
+          <t xml:space="preserve"> Head Davis Cup</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -6830,20 +6842,16 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
       </c>
       <c r="H70" t="n">
-        <v>6</v>
-      </c>
-      <c r="I70" t="n">
-        <v>6</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
@@ -6862,18 +6870,18 @@
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr">
         <is>
-          <t>Andreas Seppi</t>
+          <t>David Ferrer</t>
         </is>
       </c>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>21 Feb 1984</t>
+          <t>02 Apr 1982</t>
         </is>
       </c>
       <c r="W70" t="inlineStr"/>
@@ -6893,7 +6901,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valletta Cambiaso ASD, Genoa, Italy</t>
+          <t xml:space="preserve"> Plaza de Toros de Valencia, Valencia, Spain</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -6903,7 +6911,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
+          <t xml:space="preserve"> Head Davis Cup</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -6918,14 +6926,10 @@
         <v>6</v>
       </c>
       <c r="H71" t="n">
-        <v>4</v>
-      </c>
-      <c r="I71" t="n">
-        <v>3</v>
-      </c>
-      <c r="J71" t="n">
-        <v>6</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
@@ -6944,28 +6948,28 @@
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr">
         <is>
-          <t>Lucas Pouille</t>
+          <t>Alexander Zverev</t>
         </is>
       </c>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>23 Feb 1994</t>
+          <t>20 Apr 1997</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>4</t>
         </is>
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>90</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr"/>
@@ -6983,7 +6987,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valletta Cambiaso ASD, Genoa, Italy</t>
+          <t xml:space="preserve"> Plaza de Toros de Valencia, Valencia, Spain</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -6993,7 +6997,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
+          <t xml:space="preserve"> Head Davis Cup</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -7010,13 +7014,9 @@
       <c r="H72" t="n">
         <v>6</v>
       </c>
-      <c r="I72" t="n">
-        <v>6</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>6</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
@@ -7034,28 +7034,28 @@
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr">
         <is>
-          <t>Fabio Fognini</t>
+          <t>Rafael Nadal</t>
         </is>
       </c>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>24 May 1987</t>
+          <t>03 Jun 1986</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>154</t>
         </is>
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>863</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr"/>
@@ -7073,7 +7073,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valletta Cambiaso ASD, Genoa, Italy</t>
+          <t xml:space="preserve"> Plaza de Toros de Valencia, Valencia, Spain</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -7083,7 +7083,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
+          <t xml:space="preserve"> Head Davis Cup</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -7092,21 +7092,17 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
         <v>3</v>
       </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>8</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
@@ -7124,18 +7120,18 @@
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr">
         <is>
-          <t>Jeremy Chardy</t>
+          <t>Philipp Kohlschreiber</t>
         </is>
       </c>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>12 Feb 1987</t>
+          <t>16 Oct 1983</t>
         </is>
       </c>
       <c r="W73" t="inlineStr"/>
@@ -7155,7 +7151,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valletta Cambiaso ASD, Genoa, Italy</t>
+          <t xml:space="preserve"> Plaza de Toros de Valencia, Valencia, Spain</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -7165,7 +7161,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
+          <t xml:space="preserve"> Head Davis Cup</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -7174,20 +7170,26 @@
         </is>
       </c>
       <c r="F74" t="n">
+        <v>3</v>
+      </c>
+      <c r="G74" t="n">
         <v>4</v>
       </c>
-      <c r="G74" t="n">
-        <v>3</v>
-      </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="I74" t="n">
+        <v>7</v>
+      </c>
+      <c r="J74" t="n">
+        <v>5</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
+      <c r="N74" t="n">
+        <v>7</v>
+      </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
@@ -7202,45 +7204,29 @@
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr">
         <is>
-          <t>Simone Bolelli</t>
+          <t>Feliciano Lopez</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>Fabio Fognini</t>
+          <t>Marc Lopez</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>08 Oct 1985</t>
+          <t>20 Sep 1981</t>
         </is>
       </c>
       <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="Y74" t="inlineStr">
-        <is>
-          <t>24 May 1987</t>
-        </is>
-      </c>
-      <c r="Z74" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="AA74" t="inlineStr">
-        <is>
-          <t>832</t>
-        </is>
-      </c>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr"/>
       <c r="AB74" t="n">
         <v>2018</v>
       </c>
@@ -7253,7 +7239,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valletta Cambiaso ASD, Genoa, Italy</t>
+          <t xml:space="preserve"> Plaza de Toros de Valencia, Valencia, Spain</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -7263,7 +7249,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
+          <t xml:space="preserve"> Head Davis Cup</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -7278,14 +7264,20 @@
         <v>6</v>
       </c>
       <c r="H75" t="n">
-        <v>6</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I75" t="n">
+        <v>6</v>
+      </c>
+      <c r="J75" t="n">
+        <v>7</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
+      <c r="N75" t="n">
+        <v>4</v>
+      </c>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
@@ -7300,43 +7292,43 @@
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr">
         <is>
-          <t>Pierre-Hugues Herbert</t>
+          <t>Tim Puetz</t>
         </is>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>Nicolas Mahut</t>
+          <t>Jan-Lennard Struff</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>18 Mar 1991</t>
-        </is>
-      </c>
-      <c r="W75" t="inlineStr">
-        <is>
-          <t>133</t>
-        </is>
-      </c>
+          <t>19 Nov 1987</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>20=</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>21 Jan 1982</t>
-        </is>
-      </c>
-      <c r="Z75" t="inlineStr"/>
+          <t>25 Apr 1990</t>
+        </is>
+      </c>
+      <c r="Z75" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>131</t>
         </is>
       </c>
       <c r="AB75" t="n">
@@ -7351,7 +7343,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valletta Cambiaso ASD, Genoa, Italy</t>
+          <t xml:space="preserve"> Plaza de Toros de Valencia, Valencia, Spain</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -7361,7 +7353,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
+          <t xml:space="preserve"> Head Davis Cup</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -7373,20 +7365,16 @@
         <v>6</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H76" t="n">
         <v>6</v>
       </c>
-      <c r="I76" t="n">
-        <v>3</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>3</v>
-      </c>
+      <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
@@ -7402,28 +7390,28 @@
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr">
         <is>
-          <t>Fabio Fognini</t>
+          <t>Rafael Nadal</t>
         </is>
       </c>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>24 May 1987</t>
+          <t>03 Jun 1986</t>
         </is>
       </c>
       <c r="W76" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>154</t>
         </is>
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>863</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr"/>
@@ -7441,7 +7429,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valletta Cambiaso ASD, Genoa, Italy</t>
+          <t xml:space="preserve"> Plaza de Toros de Valencia, Valencia, Spain</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -7451,7 +7439,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
+          <t xml:space="preserve"> Head Davis Cup</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -7460,23 +7448,19 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H77" t="n">
-        <v>7</v>
-      </c>
-      <c r="I77" t="n">
-        <v>6</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>7</v>
-      </c>
+      <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
@@ -7492,28 +7476,28 @@
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr">
         <is>
-          <t>Lucas Pouille</t>
+          <t>Alexander Zverev</t>
         </is>
       </c>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>23 Feb 1994</t>
+          <t>20 Apr 1997</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>4</t>
         </is>
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>90</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr"/>
@@ -7550,19 +7534,27 @@
         </is>
       </c>
       <c r="F78" t="n">
+        <v>7</v>
+      </c>
+      <c r="G78" t="n">
+        <v>3</v>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+      <c r="I78" t="n">
         <v>4</v>
       </c>
-      <c r="G78" t="n">
-        <v>2</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>7</v>
+      </c>
+      <c r="K78" t="n">
+        <v>7</v>
+      </c>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
+      <c r="M78" t="n">
+        <v>7</v>
+      </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
@@ -7572,7 +7564,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 5</t>
         </is>
       </c>
       <c r="R78" t="inlineStr"/>
@@ -7636,11 +7628,19 @@
       <c r="H79" t="n">
         <v>6</v>
       </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>6</v>
+      </c>
+      <c r="J79" t="n">
+        <v>5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
@@ -7650,13 +7650,13 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 5</t>
         </is>
       </c>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr">
         <is>
-          <t>Alexander Zverev</t>
+          <t>Philipp Kohlschreiber</t>
         </is>
       </c>
       <c r="T79" t="inlineStr"/>
@@ -7667,19 +7667,11 @@
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>20 Apr 1997</t>
-        </is>
-      </c>
-      <c r="W79" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="X79" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+          <t>16 Oct 1983</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="inlineStr"/>
@@ -7695,17 +7687,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Plaza de Toros de Valencia, Valencia, Spain</t>
+          <t xml:space="preserve"> Varazdin Arena, Varazdin, Croatia</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Head Davis Cup</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -7736,36 +7728,32 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr">
         <is>
-          <t>Rafael Nadal</t>
+          <t>Marin Cilic</t>
         </is>
       </c>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>03 Jun 1986</t>
+          <t>28 Sep 1988</t>
         </is>
       </c>
       <c r="W80" t="inlineStr">
         <is>
-          <t>156</t>
-        </is>
-      </c>
-      <c r="X80" t="inlineStr">
-        <is>
-          <t>860</t>
-        </is>
-      </c>
+          <t>1082</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="inlineStr"/>
@@ -7781,17 +7769,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Plaza de Toros de Valencia, Valencia, Spain</t>
+          <t xml:space="preserve"> Varazdin Arena, Varazdin, Croatia</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Head Davis Cup</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -7803,10 +7791,10 @@
         <v>2</v>
       </c>
       <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="n">
         <v>2</v>
-      </c>
-      <c r="H81" t="n">
-        <v>3</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -7822,28 +7810,36 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr">
         <is>
-          <t>Philipp Kohlschreiber</t>
+          <t>Dmitry Popko</t>
         </is>
       </c>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>KAZAKHSTAN</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>16 Oct 1983</t>
-        </is>
-      </c>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
+          <t>24 Oct 1996</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr"/>
       <c r="AA81" t="inlineStr"/>
@@ -7859,17 +7855,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Plaza de Toros de Valencia, Valencia, Spain</t>
+          <t xml:space="preserve"> Varazdin Arena, Varazdin, Croatia</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Head Davis Cup</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -7878,26 +7874,24 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G82" t="n">
+        <v>6</v>
+      </c>
+      <c r="H82" t="n">
         <v>4</v>
       </c>
-      <c r="H82" t="n">
-        <v>6</v>
-      </c>
       <c r="I82" t="n">
-        <v>7</v>
-      </c>
-      <c r="J82" t="n">
+        <v>2</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
         <v>5</v>
       </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
-        <v>7</v>
-      </c>
+      <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
@@ -7906,31 +7900,31 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr">
         <is>
-          <t>Feliciano Lopez</t>
-        </is>
-      </c>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>Marc Lopez</t>
-        </is>
-      </c>
+          <t>Borna Coric</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>20 Sep 1981</t>
-        </is>
-      </c>
-      <c r="W82" t="inlineStr"/>
+          <t>14 Nov 1996</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
       <c r="X82" t="inlineStr"/>
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr"/>
@@ -7947,17 +7941,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Plaza de Toros de Valencia, Valencia, Spain</t>
+          <t xml:space="preserve"> Varazdin Arena, Varazdin, Croatia</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Head Davis Cup</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -7966,26 +7960,24 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G83" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I83" t="n">
         <v>6</v>
       </c>
-      <c r="J83" t="n">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
         <v>7</v>
       </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
-        <v>4</v>
-      </c>
+      <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
@@ -7994,51 +7986,35 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr">
         <is>
-          <t>Tim Puetz</t>
-        </is>
-      </c>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>Jan-Lennard Struff</t>
-        </is>
-      </c>
+          <t>Mikhail Kukushkin</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>KAZAKHSTAN</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>19 Nov 1987</t>
-        </is>
-      </c>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr">
-        <is>
-          <t>20=</t>
-        </is>
-      </c>
-      <c r="Y83" t="inlineStr">
-        <is>
-          <t>25 Apr 1990</t>
-        </is>
-      </c>
-      <c r="Z83" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="AA83" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
+          <t>26 Dec 1987</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr"/>
+      <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="n">
         <v>2018</v>
       </c>
@@ -8051,17 +8027,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Plaza de Toros de Valencia, Valencia, Spain</t>
+          <t xml:space="preserve"> Varazdin Arena, Varazdin, Croatia</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Head Davis Cup</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -8078,9 +8054,13 @@
       <c r="H84" t="n">
         <v>6</v>
       </c>
-      <c r="I84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>6</v>
+      </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>2</v>
+      </c>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
@@ -8092,39 +8072,47 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>MATCH 4</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr">
         <is>
-          <t>Rafael Nadal</t>
-        </is>
-      </c>
-      <c r="T84" t="inlineStr"/>
+          <t>Ivan Dodig</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>Nikola Mektic</t>
+        </is>
+      </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>03 Jun 1986</t>
-        </is>
-      </c>
-      <c r="W84" t="inlineStr">
-        <is>
-          <t>156</t>
-        </is>
-      </c>
+          <t>02 Jan 1985</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr">
         <is>
-          <t>860</t>
-        </is>
-      </c>
-      <c r="Y84" t="inlineStr"/>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>24 Dec 1988</t>
+        </is>
+      </c>
       <c r="Z84" t="inlineStr"/>
-      <c r="AA84" t="inlineStr"/>
+      <c r="AA84" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
       <c r="AB84" t="n">
         <v>2018</v>
       </c>
@@ -8137,17 +8125,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Plaza de Toros de Valencia, Valencia, Spain</t>
+          <t xml:space="preserve"> Varazdin Arena, Varazdin, Croatia</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Head Davis Cup</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -8156,7 +8144,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G85" t="n">
         <v>4</v>
@@ -8164,9 +8152,13 @@
       <c r="H85" t="n">
         <v>4</v>
       </c>
-      <c r="I85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>2</v>
+      </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>7</v>
+      </c>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
@@ -8178,39 +8170,43 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>MATCH 4</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr">
         <is>
-          <t>Alexander Zverev</t>
-        </is>
-      </c>
-      <c r="T85" t="inlineStr"/>
+          <t>Timur Khabibulin</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>Aleksandr Nedovyesov</t>
+        </is>
+      </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>KAZAKHSTAN</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>20 Apr 1997</t>
-        </is>
-      </c>
-      <c r="W85" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="X85" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="Y85" t="inlineStr"/>
+          <t>02 Aug 1995</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>15 Feb 1987</t>
+        </is>
+      </c>
       <c r="Z85" t="inlineStr"/>
-      <c r="AA85" t="inlineStr"/>
+      <c r="AA85" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
       <c r="AB85" t="n">
         <v>2018</v>
       </c>
@@ -8223,17 +8219,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Plaza de Toros de Valencia, Valencia, Spain</t>
+          <t xml:space="preserve"> Varazdin Arena, Varazdin, Croatia</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Head Davis Cup</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -8242,27 +8238,19 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G86" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H86" t="n">
-        <v>7</v>
-      </c>
-      <c r="I86" t="n">
-        <v>4</v>
-      </c>
-      <c r="J86" t="n">
-        <v>7</v>
-      </c>
-      <c r="K86" t="n">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>7</v>
-      </c>
+      <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
@@ -8272,27 +8260,31 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>MATCH 5</t>
+          <t>MATCH 4</t>
         </is>
       </c>
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr">
         <is>
-          <t>David Ferrer</t>
+          <t>Marin Cilic</t>
         </is>
       </c>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>02 Apr 1982</t>
-        </is>
-      </c>
-      <c r="W86" t="inlineStr"/>
+          <t>28 Sep 1988</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>1082</t>
+        </is>
+      </c>
       <c r="X86" t="inlineStr"/>
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr"/>
@@ -8309,17 +8301,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Plaza de Toros de Valencia, Valencia, Spain</t>
+          <t xml:space="preserve"> Varazdin Arena, Varazdin, Croatia</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Head Davis Cup</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -8328,27 +8320,19 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>6</v>
-      </c>
-      <c r="I87" t="n">
-        <v>6</v>
-      </c>
-      <c r="J87" t="n">
-        <v>5</v>
-      </c>
-      <c r="K87" t="n">
         <v>1</v>
       </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>4</v>
-      </c>
+      <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
@@ -8358,27 +8342,31 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>MATCH 5</t>
+          <t>MATCH 4</t>
         </is>
       </c>
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr">
         <is>
-          <t>Philipp Kohlschreiber</t>
+          <t>Mikhail Kukushkin</t>
         </is>
       </c>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>KAZAKHSTAN</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>16 Oct 1983</t>
-        </is>
-      </c>
-      <c r="W87" t="inlineStr"/>
+          <t>26 Dec 1987</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
       <c r="X87" t="inlineStr"/>
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr"/>
@@ -8395,17 +8383,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Varazdin Arena, Varazdin, Croatia</t>
+          <t xml:space="preserve"> Curb Event Center, Nashville, USA</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
+          <t xml:space="preserve"> Hard - Premier, Indoor</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
+          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -8420,13 +8408,19 @@
         <v>6</v>
       </c>
       <c r="H88" t="n">
-        <v>6</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="I88" t="n">
+        <v>6</v>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>4</v>
+      </c>
+      <c r="M88" t="n">
+        <v>10</v>
+      </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
@@ -8439,26 +8433,30 @@
           <t>MATCH 1</t>
         </is>
       </c>
-      <c r="R88" t="inlineStr"/>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium</t>
+        </is>
+      </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>Marin Cilic</t>
+          <t>John Isner</t>
         </is>
       </c>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>28 Sep 1988</t>
+          <t>26 Apr 1985</t>
         </is>
       </c>
       <c r="W88" t="inlineStr">
         <is>
-          <t>1083</t>
+          <t>660</t>
         </is>
       </c>
       <c r="X88" t="inlineStr"/>
@@ -8477,17 +8475,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Varazdin Arena, Varazdin, Croatia</t>
+          <t xml:space="preserve"> Curb Event Center, Nashville, USA</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
+          <t xml:space="preserve"> Hard - Premier, Indoor</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
+          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -8496,19 +8494,25 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="I89" t="n">
+        <v>4</v>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>7</v>
+      </c>
+      <c r="M89" t="n">
+        <v>8</v>
+      </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
@@ -8521,33 +8525,33 @@
           <t>MATCH 1</t>
         </is>
       </c>
-      <c r="R89" t="inlineStr"/>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium</t>
+        </is>
+      </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>Dmitry Popko</t>
+          <t>Joris De Loore</t>
         </is>
       </c>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr">
         <is>
-          <t>KAZAKHSTAN</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>24 Oct 1996</t>
+          <t>21 Apr 1993</t>
         </is>
       </c>
       <c r="W89" t="inlineStr">
         <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="X89" t="inlineStr">
-        <is>
-          <t>518</t>
-        </is>
-      </c>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="inlineStr"/>
@@ -8563,17 +8567,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Varazdin Arena, Varazdin, Croatia</t>
+          <t xml:space="preserve"> Curb Event Center, Nashville, USA</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
+          <t xml:space="preserve"> Hard - Premier, Indoor</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
+          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -8585,18 +8589,16 @@
         <v>6</v>
       </c>
       <c r="G90" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H90" t="n">
-        <v>4</v>
-      </c>
-      <c r="I90" t="n">
-        <v>2</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
@@ -8611,28 +8613,28 @@
           <t>MATCH 2</t>
         </is>
       </c>
-      <c r="R90" t="inlineStr"/>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium</t>
+        </is>
+      </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>Borna Coric</t>
+          <t>Sam Querrey</t>
         </is>
       </c>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>14 Nov 1996</t>
-        </is>
-      </c>
-      <c r="W90" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
+          <t>07 Oct 1987</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr"/>
       <c r="X90" t="inlineStr"/>
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr"/>
@@ -8649,17 +8651,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Varazdin Arena, Varazdin, Croatia</t>
+          <t xml:space="preserve"> Curb Event Center, Nashville, USA</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
+          <t xml:space="preserve"> Hard - Premier, Indoor</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
+          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -8668,21 +8670,19 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H91" t="n">
-        <v>6</v>
-      </c>
-      <c r="I91" t="n">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
@@ -8697,28 +8697,28 @@
           <t>MATCH 2</t>
         </is>
       </c>
-      <c r="R91" t="inlineStr"/>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium</t>
+        </is>
+      </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>Mikhail Kukushkin</t>
+          <t>Ruben Bemelmans</t>
         </is>
       </c>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr">
         <is>
-          <t>KAZAKHSTAN</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>26 Dec 1987</t>
-        </is>
-      </c>
-      <c r="W91" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
-      </c>
+          <t>14 Jan 1988</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr"/>
       <c r="X91" t="inlineStr"/>
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr"/>
@@ -8735,17 +8735,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Varazdin Arena, Varazdin, Croatia</t>
+          <t xml:space="preserve"> Curb Event Center, Nashville, USA</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
+          <t xml:space="preserve"> Hard - Premier, Indoor</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
+          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -8754,23 +8754,25 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G92" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H92" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I92" t="n">
         <v>6</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>2</v>
-      </c>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>7</v>
+      </c>
+      <c r="M92" t="n">
+        <v>7</v>
+      </c>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
@@ -8783,44 +8785,40 @@
           <t>MATCH 3</t>
         </is>
       </c>
-      <c r="R92" t="inlineStr"/>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium</t>
+        </is>
+      </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>Ivan Dodig</t>
+          <t>Ryan Harrison</t>
         </is>
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>Nikola Mektic</t>
+          <t>Jack Sock</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>02 Jan 1985</t>
+          <t>07 May 1992</t>
         </is>
       </c>
       <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
+      <c r="X92" t="inlineStr"/>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>24 Dec 1988</t>
+          <t>24 Sep 1992</t>
         </is>
       </c>
       <c r="Z92" t="inlineStr"/>
-      <c r="AA92" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
+      <c r="AA92" t="inlineStr"/>
       <c r="AB92" t="n">
         <v>2018</v>
       </c>
@@ -8833,17 +8831,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Varazdin Arena, Varazdin, Croatia</t>
+          <t xml:space="preserve"> Curb Event Center, Nashville, USA</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
+          <t xml:space="preserve"> Hard - Premier, Indoor</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
+          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -8855,20 +8853,22 @@
         <v>7</v>
       </c>
       <c r="G93" t="n">
+        <v>6</v>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+      <c r="I93" t="n">
         <v>4</v>
       </c>
-      <c r="H93" t="n">
-        <v>4</v>
-      </c>
-      <c r="I93" t="n">
-        <v>2</v>
-      </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>7</v>
-      </c>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
@@ -8881,38 +8881,46 @@
           <t>MATCH 3</t>
         </is>
       </c>
-      <c r="R93" t="inlineStr"/>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium</t>
+        </is>
+      </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>Timur Khabibulin</t>
+          <t>Sander Gille</t>
         </is>
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>Aleksandr Nedovyesov</t>
+          <t>Joran Vliegen</t>
         </is>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>KAZAKHSTAN</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>02 Aug 1995</t>
+          <t>15 Jan 1991</t>
         </is>
       </c>
       <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr"/>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>35=</t>
+        </is>
+      </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>15 Feb 1987</t>
+          <t>07 Jul 1993</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr"/>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>35=</t>
         </is>
       </c>
       <c r="AB93" t="n">
@@ -8927,17 +8935,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Varazdin Arena, Varazdin, Croatia</t>
+          <t xml:space="preserve"> Curb Event Center, Nashville, USA</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
+          <t xml:space="preserve"> Hard - Premier, Indoor</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
+          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -8951,9 +8959,7 @@
       <c r="G94" t="n">
         <v>6</v>
       </c>
-      <c r="H94" t="n">
-        <v>6</v>
-      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -8971,28 +8977,28 @@
           <t>MATCH 4</t>
         </is>
       </c>
-      <c r="R94" t="inlineStr"/>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium</t>
+        </is>
+      </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>Marin Cilic</t>
+          <t>Ryan Harrison</t>
         </is>
       </c>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>28 Sep 1988</t>
-        </is>
-      </c>
-      <c r="W94" t="inlineStr">
-        <is>
-          <t>1083</t>
-        </is>
-      </c>
+          <t>07 May 1992</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr"/>
       <c r="X94" t="inlineStr"/>
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr"/>
@@ -9009,17 +9015,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Varazdin Arena, Varazdin, Croatia</t>
+          <t xml:space="preserve"> Curb Event Center, Nashville, USA</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
+          <t xml:space="preserve"> Hard - Premier, Indoor</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
+          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -9028,14 +9034,12 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -9053,28 +9057,28 @@
           <t>MATCH 4</t>
         </is>
       </c>
-      <c r="R95" t="inlineStr"/>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium</t>
+        </is>
+      </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>Mikhail Kukushkin</t>
+          <t>Ruben Bemelmans</t>
         </is>
       </c>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr">
         <is>
-          <t>KAZAKHSTAN</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>26 Dec 1987</t>
-        </is>
-      </c>
-      <c r="W95" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
-      </c>
+          <t>14 Jan 1988</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr"/>
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr"/>
@@ -9086,49 +9090,43 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06 Apr - 08 Apr 2018</t>
+          <t xml:space="preserve"> 14 Sep - 16 Sep 2018</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Curb Event Center, Nashville, USA</t>
+          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Premier, Indoor</t>
+          <t xml:space="preserve"> Hard - Rebound Ace Synpave, Indoor</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Tecnifibre X-One</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>WORLD GROUP  QUARTERFINAL</t>
+          <t>WORLD GROUP  SEMIFINAL</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G96" t="n">
         <v>6</v>
       </c>
       <c r="H96" t="n">
-        <v>7</v>
-      </c>
-      <c r="I96" t="n">
-        <v>6</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>4</v>
-      </c>
-      <c r="M96" t="n">
-        <v>10</v>
-      </c>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
@@ -9141,33 +9139,33 @@
           <t>MATCH 1</t>
         </is>
       </c>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium</t>
-        </is>
-      </c>
+      <c r="R96" t="inlineStr"/>
       <c r="S96" t="inlineStr">
         <is>
-          <t>John Isner</t>
+          <t>Benoit Paire</t>
         </is>
       </c>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>26 Apr 1985</t>
+          <t>08 May 1989</t>
         </is>
       </c>
       <c r="W96" t="inlineStr">
         <is>
-          <t>664</t>
-        </is>
-      </c>
-      <c r="X96" t="inlineStr"/>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>1155</t>
+        </is>
+      </c>
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr"/>
       <c r="AA96" t="inlineStr"/>
@@ -9178,49 +9176,43 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06 Apr - 08 Apr 2018</t>
+          <t xml:space="preserve"> 14 Sep - 16 Sep 2018</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Curb Event Center, Nashville, USA</t>
+          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Premier, Indoor</t>
+          <t xml:space="preserve"> Hard - Rebound Ace Synpave, Indoor</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Tecnifibre X-One</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>WORLD GROUP  QUARTERFINAL</t>
+          <t>WORLD GROUP  SEMIFINAL</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G97" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>6</v>
-      </c>
-      <c r="I97" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>7</v>
-      </c>
-      <c r="M97" t="n">
-        <v>8</v>
-      </c>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
@@ -9233,30 +9225,26 @@
           <t>MATCH 1</t>
         </is>
       </c>
-      <c r="R97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium</t>
-        </is>
-      </c>
+      <c r="R97" t="inlineStr"/>
       <c r="S97" t="inlineStr">
         <is>
-          <t>Joris De Loore</t>
+          <t>Pablo Carreno Busta</t>
         </is>
       </c>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>21 Apr 1993</t>
+          <t>12 Jul 1991</t>
         </is>
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>213</t>
         </is>
       </c>
       <c r="X97" t="inlineStr"/>
@@ -9270,40 +9258,44 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06 Apr - 08 Apr 2018</t>
+          <t xml:space="preserve"> 14 Sep - 16 Sep 2018</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Curb Event Center, Nashville, USA</t>
+          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Premier, Indoor</t>
+          <t xml:space="preserve"> Hard - Rebound Ace Synpave, Indoor</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Tecnifibre X-One</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>WORLD GROUP  QUARTERFINAL</t>
+          <t>WORLD GROUP  SEMIFINAL</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G98" t="n">
         <v>7</v>
       </c>
       <c r="H98" t="n">
-        <v>7</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2</v>
+      </c>
+      <c r="J98" t="n">
+        <v>6</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>7</v>
@@ -9321,29 +9313,33 @@
           <t>MATCH 2</t>
         </is>
       </c>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium</t>
-        </is>
-      </c>
+      <c r="R98" t="inlineStr"/>
       <c r="S98" t="inlineStr">
         <is>
-          <t>Sam Querrey</t>
+          <t>Lucas Pouille</t>
         </is>
       </c>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>07 Oct 1987</t>
-        </is>
-      </c>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr"/>
+          <t>23 Feb 1994</t>
+        </is>
+      </c>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr"/>
       <c r="AA98" t="inlineStr"/>
@@ -9354,40 +9350,44 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06 Apr - 08 Apr 2018</t>
+          <t xml:space="preserve"> 14 Sep - 16 Sep 2018</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Curb Event Center, Nashville, USA</t>
+          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Premier, Indoor</t>
+          <t xml:space="preserve"> Hard - Rebound Ace Synpave, Indoor</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Tecnifibre X-One</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>WORLD GROUP  QUARTERFINAL</t>
+          <t>WORLD GROUP  SEMIFINAL</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G99" t="n">
         <v>6</v>
       </c>
       <c r="H99" t="n">
-        <v>5</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="I99" t="n">
+        <v>6</v>
+      </c>
+      <c r="J99" t="n">
+        <v>4</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>5</v>
@@ -9405,28 +9405,28 @@
           <t>MATCH 2</t>
         </is>
       </c>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium</t>
-        </is>
-      </c>
+      <c r="R99" t="inlineStr"/>
       <c r="S99" t="inlineStr">
         <is>
-          <t>Ruben Bemelmans</t>
+          <t>Roberto Bautista Agut</t>
         </is>
       </c>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>14 Jan 1988</t>
-        </is>
-      </c>
-      <c r="W99" t="inlineStr"/>
+          <t>14 Apr 1988</t>
+        </is>
+      </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
       <c r="X99" t="inlineStr"/>
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr"/>
@@ -9438,48 +9438,44 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06 Apr - 08 Apr 2018</t>
+          <t xml:space="preserve"> 14 Sep - 16 Sep 2018</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Curb Event Center, Nashville, USA</t>
+          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Premier, Indoor</t>
+          <t xml:space="preserve"> Hard - Rebound Ace Synpave, Indoor</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Tecnifibre X-One</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>WORLD GROUP  QUARTERFINAL</t>
+          <t>WORLD GROUP  SEMIFINAL</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G100" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H100" t="n">
         <v>7</v>
       </c>
-      <c r="I100" t="n">
-        <v>6</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>7</v>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
@@ -9493,40 +9489,40 @@
           <t>MATCH 3</t>
         </is>
       </c>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium</t>
-        </is>
-      </c>
+      <c r="R100" t="inlineStr"/>
       <c r="S100" t="inlineStr">
         <is>
-          <t>Ryan Harrison</t>
+          <t>Julien Benneteau</t>
         </is>
       </c>
       <c r="T100" t="inlineStr">
         <is>
-          <t>Jack Sock</t>
+          <t>Nicolas Mahut</t>
         </is>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>07 May 1992</t>
+          <t>20 Dec 1981</t>
         </is>
       </c>
       <c r="W100" t="inlineStr"/>
       <c r="X100" t="inlineStr"/>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>24 Sep 1992</t>
+          <t>21 Jan 1982</t>
         </is>
       </c>
       <c r="Z100" t="inlineStr"/>
-      <c r="AA100" t="inlineStr"/>
+      <c r="AA100" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="AB100" t="n">
         <v>2018</v>
       </c>
@@ -9534,48 +9530,44 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06 Apr - 08 Apr 2018</t>
+          <t xml:space="preserve"> 14 Sep - 16 Sep 2018</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Curb Event Center, Nashville, USA</t>
+          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Premier, Indoor</t>
+          <t xml:space="preserve"> Hard - Rebound Ace Synpave, Indoor</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Tecnifibre X-One</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>WORLD GROUP  QUARTERFINAL</t>
+          <t>WORLD GROUP  SEMIFINAL</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H101" t="n">
         <v>6</v>
       </c>
-      <c r="I101" t="n">
-        <v>4</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
@@ -9589,48 +9581,40 @@
           <t>MATCH 3</t>
         </is>
       </c>
-      <c r="R101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium</t>
-        </is>
-      </c>
+      <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr">
         <is>
-          <t>Sander Gille</t>
+          <t>Marcel Granollers</t>
         </is>
       </c>
       <c r="T101" t="inlineStr">
         <is>
-          <t>Joran Vliegen</t>
+          <t>Feliciano Lopez</t>
         </is>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>15 Jan 1991</t>
+          <t>12 Apr 1986</t>
         </is>
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr">
         <is>
-          <t>35=</t>
+          <t>1=</t>
         </is>
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>07 Jul 1993</t>
+          <t>20 Sep 1981</t>
         </is>
       </c>
       <c r="Z101" t="inlineStr"/>
-      <c r="AA101" t="inlineStr">
-        <is>
-          <t>35=</t>
-        </is>
-      </c>
+      <c r="AA101" t="inlineStr"/>
       <c r="AB101" t="n">
         <v>2018</v>
       </c>
@@ -9638,36 +9622,38 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06 Apr - 08 Apr 2018</t>
+          <t xml:space="preserve"> 14 Sep - 16 Sep 2018</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Curb Event Center, Nashville, USA</t>
+          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Premier, Indoor</t>
+          <t xml:space="preserve"> Hard - Rebound Ace Synpave, Indoor</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Tecnifibre X-One</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>WORLD GROUP  QUARTERFINAL</t>
+          <t>WORLD GROUP  SEMIFINAL</t>
         </is>
       </c>
       <c r="F102" t="n">
         <v>6</v>
       </c>
       <c r="G102" t="n">
-        <v>6</v>
-      </c>
-      <c r="H102" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="H102" t="n">
+        <v>12</v>
+      </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -9685,28 +9671,28 @@
           <t>MATCH 4</t>
         </is>
       </c>
-      <c r="R102" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium</t>
-        </is>
-      </c>
+      <c r="R102" t="inlineStr"/>
       <c r="S102" t="inlineStr">
         <is>
-          <t>Ryan Harrison</t>
+          <t>Richard Gasquet</t>
         </is>
       </c>
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>07 May 1992</t>
-        </is>
-      </c>
-      <c r="W102" t="inlineStr"/>
+          <t>18 Jun 1986</t>
+        </is>
+      </c>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
       <c r="X102" t="inlineStr"/>
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr"/>
@@ -9718,36 +9704,38 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06 Apr - 08 Apr 2018</t>
+          <t xml:space="preserve"> 14 Sep - 16 Sep 2018</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Curb Event Center, Nashville, USA</t>
+          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Premier, Indoor</t>
+          <t xml:space="preserve"> Hard - Rebound Ace Synpave, Indoor</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Tecnifibre X-One</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>WORLD GROUP  QUARTERFINAL</t>
+          <t>WORLD GROUP  SEMIFINAL</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>4</v>
-      </c>
-      <c r="H103" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="H103" t="n">
+        <v>14</v>
+      </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -9765,28 +9753,28 @@
           <t>MATCH 4</t>
         </is>
       </c>
-      <c r="R103" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium</t>
-        </is>
-      </c>
+      <c r="R103" t="inlineStr"/>
       <c r="S103" t="inlineStr">
         <is>
-          <t>Ruben Bemelmans</t>
+          <t>Albert Ramos-Vinolas</t>
         </is>
       </c>
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>14 Jan 1988</t>
-        </is>
-      </c>
-      <c r="W103" t="inlineStr"/>
+          <t>17 Jan 1988</t>
+        </is>
+      </c>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
       <c r="X103" t="inlineStr"/>
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr"/>
@@ -9825,14 +9813,16 @@
         <v>7</v>
       </c>
       <c r="G104" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H104" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>7</v>
+      </c>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr"/>
@@ -9844,13 +9834,13 @@
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 5</t>
         </is>
       </c>
       <c r="R104" t="inlineStr"/>
       <c r="S104" t="inlineStr">
         <is>
-          <t>Benoit Paire</t>
+          <t>Nicolas Mahut</t>
         </is>
       </c>
       <c r="T104" t="inlineStr"/>
@@ -9861,17 +9851,13 @@
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>08 May 1989</t>
-        </is>
-      </c>
-      <c r="W104" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
+          <t>21 Jan 1982</t>
+        </is>
+      </c>
+      <c r="W104" t="inlineStr"/>
       <c r="X104" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>60</t>
         </is>
       </c>
       <c r="Y104" t="inlineStr"/>
@@ -9908,17 +9894,19 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>2</v>
+      </c>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr"/>
@@ -9930,13 +9918,13 @@
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 5</t>
         </is>
       </c>
       <c r="R105" t="inlineStr"/>
       <c r="S105" t="inlineStr">
         <is>
-          <t>Pablo Carreno Busta</t>
+          <t>Marcel Granollers</t>
         </is>
       </c>
       <c r="T105" t="inlineStr"/>
@@ -9947,15 +9935,15 @@
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>12 Jul 1991</t>
-        </is>
-      </c>
-      <c r="W105" t="inlineStr">
-        <is>
-          <t>299</t>
-        </is>
-      </c>
-      <c r="X105" t="inlineStr"/>
+          <t>12 Apr 1986</t>
+        </is>
+      </c>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr">
+        <is>
+          <t>1=</t>
+        </is>
+      </c>
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr"/>
       <c r="AA105" t="inlineStr"/>
@@ -9971,17 +9959,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
+          <t xml:space="preserve"> Sportski centar Visnjik, Zadar, Croatia</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Rebound Ace Synpave, Indoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tecnifibre X-One</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -9990,7 +9978,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G106" t="n">
         <v>7</v>
@@ -9998,12 +9986,8 @@
       <c r="H106" t="n">
         <v>6</v>
       </c>
-      <c r="I106" t="n">
-        <v>2</v>
-      </c>
-      <c r="J106" t="n">
-        <v>6</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>7</v>
@@ -10018,36 +10002,32 @@
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R106" t="inlineStr"/>
       <c r="S106" t="inlineStr">
         <is>
-          <t>Lucas Pouille</t>
+          <t>Borna Coric</t>
         </is>
       </c>
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>23 Feb 1994</t>
+          <t>14 Nov 1996</t>
         </is>
       </c>
       <c r="W106" t="inlineStr">
         <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="X106" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="X106" t="inlineStr"/>
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr"/>
       <c r="AA106" t="inlineStr"/>
@@ -10063,17 +10043,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
+          <t xml:space="preserve"> Sportski centar Visnjik, Zadar, Croatia</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Rebound Ace Synpave, Indoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tecnifibre X-One</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -10082,23 +10062,19 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G107" t="n">
         <v>6</v>
       </c>
       <c r="H107" t="n">
-        <v>4</v>
-      </c>
-      <c r="I107" t="n">
-        <v>6</v>
-      </c>
-      <c r="J107" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr"/>
@@ -10110,29 +10086,29 @@
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R107" t="inlineStr"/>
       <c r="S107" t="inlineStr">
         <is>
-          <t>Roberto Bautista Agut</t>
+          <t>Steve Johnson</t>
         </is>
       </c>
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>14 Apr 1988</t>
+          <t>24 Dec 1989</t>
         </is>
       </c>
       <c r="W107" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>623</t>
         </is>
       </c>
       <c r="X107" t="inlineStr"/>
@@ -10151,17 +10127,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
+          <t xml:space="preserve"> Sportski centar Visnjik, Zadar, Croatia</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Rebound Ace Synpave, Indoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tecnifibre X-One</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -10183,7 +10159,7 @@
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
@@ -10194,43 +10170,35 @@
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R108" t="inlineStr"/>
       <c r="S108" t="inlineStr">
         <is>
-          <t>Julien Benneteau</t>
-        </is>
-      </c>
-      <c r="T108" t="inlineStr">
-        <is>
-          <t>Nicolas Mahut</t>
-        </is>
-      </c>
+          <t>Marin Cilic</t>
+        </is>
+      </c>
+      <c r="T108" t="inlineStr"/>
       <c r="U108" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>20 Dec 1981</t>
-        </is>
-      </c>
-      <c r="W108" t="inlineStr"/>
+          <t>28 Sep 1988</t>
+        </is>
+      </c>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t>1082</t>
+        </is>
+      </c>
       <c r="X108" t="inlineStr"/>
-      <c r="Y108" t="inlineStr">
-        <is>
-          <t>21 Jan 1982</t>
-        </is>
-      </c>
+      <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr"/>
-      <c r="AA108" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+      <c r="AA108" t="inlineStr"/>
       <c r="AB108" t="n">
         <v>2018</v>
       </c>
@@ -10243,17 +10211,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
+          <t xml:space="preserve"> Sportski centar Visnjik, Zadar, Croatia</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Rebound Ace Synpave, Indoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tecnifibre X-One</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -10262,10 +10230,10 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H109" t="n">
         <v>6</v>
@@ -10275,7 +10243,7 @@
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
@@ -10286,41 +10254,21 @@
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R109" t="inlineStr"/>
       <c r="S109" t="inlineStr">
         <is>
-          <t>Marcel Granollers</t>
-        </is>
-      </c>
-      <c r="T109" t="inlineStr">
-        <is>
-          <t>Feliciano Lopez</t>
-        </is>
-      </c>
-      <c r="U109" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="V109" t="inlineStr">
-        <is>
-          <t>12 Apr 1986</t>
-        </is>
-      </c>
+          <t>Franklin Tiafoe</t>
+        </is>
+      </c>
+      <c r="T109" t="inlineStr"/>
+      <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
       <c r="W109" t="inlineStr"/>
-      <c r="X109" t="inlineStr">
-        <is>
-          <t>1=</t>
-        </is>
-      </c>
-      <c r="Y109" t="inlineStr">
-        <is>
-          <t>20 Sep 1981</t>
-        </is>
-      </c>
+      <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr"/>
       <c r="AA109" t="inlineStr"/>
       <c r="AB109" t="n">
@@ -10335,17 +10283,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
+          <t xml:space="preserve"> Sportski centar Visnjik, Zadar, Croatia</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Rebound Ace Synpave, Indoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tecnifibre X-One</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -10354,21 +10302,31 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G110" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H110" t="n">
-        <v>12</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="I110" t="n">
+        <v>7</v>
+      </c>
+      <c r="J110" t="n">
+        <v>6</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>6</v>
+      </c>
       <c r="M110" t="inlineStr"/>
-      <c r="N110" t="inlineStr"/>
-      <c r="O110" t="inlineStr"/>
+      <c r="N110" t="n">
+        <v>7</v>
+      </c>
+      <c r="O110" t="n">
+        <v>5</v>
+      </c>
       <c r="P110" t="inlineStr">
         <is>
           <t>PLAYED &amp; COMPLETED</t>
@@ -10376,35 +10334,47 @@
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>MATCH 4</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R110" t="inlineStr"/>
       <c r="S110" t="inlineStr">
         <is>
-          <t>Richard Gasquet</t>
-        </is>
-      </c>
-      <c r="T110" t="inlineStr"/>
+          <t>Ivan Dodig</t>
+        </is>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>Mate Pavic</t>
+        </is>
+      </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>18 Jun 1986</t>
-        </is>
-      </c>
-      <c r="W110" t="inlineStr">
-        <is>
-          <t>126</t>
-        </is>
-      </c>
-      <c r="X110" t="inlineStr"/>
-      <c r="Y110" t="inlineStr"/>
+          <t>02 Jan 1985</t>
+        </is>
+      </c>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="Y110" t="inlineStr">
+        <is>
+          <t>04 Jul 1993</t>
+        </is>
+      </c>
       <c r="Z110" t="inlineStr"/>
-      <c r="AA110" t="inlineStr"/>
+      <c r="AA110" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="AB110" t="n">
         <v>2018</v>
       </c>
@@ -10417,17 +10387,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
+          <t xml:space="preserve"> Sportski centar Visnjik, Zadar, Croatia</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Rebound Ace Synpave, Indoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tecnifibre X-One</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -10436,21 +10406,31 @@
         </is>
       </c>
       <c r="F111" t="n">
+        <v>7</v>
+      </c>
+      <c r="G111" t="n">
+        <v>7</v>
+      </c>
+      <c r="H111" t="n">
         <v>1</v>
       </c>
-      <c r="G111" t="n">
-        <v>6</v>
-      </c>
-      <c r="H111" t="n">
-        <v>14</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>6</v>
+      </c>
+      <c r="J111" t="n">
+        <v>7</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>8</v>
+      </c>
       <c r="M111" t="inlineStr"/>
-      <c r="N111" t="inlineStr"/>
-      <c r="O111" t="inlineStr"/>
+      <c r="N111" t="n">
+        <v>5</v>
+      </c>
+      <c r="O111" t="n">
+        <v>7</v>
+      </c>
       <c r="P111" t="inlineStr">
         <is>
           <t>PLAYED &amp; COMPLETED</t>
@@ -10458,33 +10438,37 @@
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>MATCH 4</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R111" t="inlineStr"/>
       <c r="S111" t="inlineStr">
         <is>
-          <t>Albert Ramos-Vinolas</t>
-        </is>
-      </c>
-      <c r="T111" t="inlineStr"/>
+          <t>Mike Bryan</t>
+        </is>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>Ryan Harrison</t>
+        </is>
+      </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>17 Jan 1988</t>
-        </is>
-      </c>
-      <c r="W111" t="inlineStr">
-        <is>
-          <t>122</t>
-        </is>
-      </c>
+          <t>29 Apr 1978</t>
+        </is>
+      </c>
+      <c r="W111" t="inlineStr"/>
       <c r="X111" t="inlineStr"/>
-      <c r="Y111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr">
+        <is>
+          <t>07 May 1992</t>
+        </is>
+      </c>
       <c r="Z111" t="inlineStr"/>
       <c r="AA111" t="inlineStr"/>
       <c r="AB111" t="n">
@@ -10499,17 +10483,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
+          <t xml:space="preserve"> Sportski centar Visnjik, Zadar, Croatia</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Rebound Ace Synpave, Indoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tecnifibre X-One</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -10521,17 +10505,21 @@
         <v>7</v>
       </c>
       <c r="G112" t="n">
+        <v>6</v>
+      </c>
+      <c r="H112" t="n">
         <v>3</v>
       </c>
-      <c r="H112" t="n">
-        <v>11</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>4</v>
+      </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
         <v>7</v>
       </c>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>6</v>
+      </c>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
@@ -10542,32 +10530,32 @@
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>MATCH 5</t>
+          <t>MATCH 4</t>
         </is>
       </c>
       <c r="R112" t="inlineStr"/>
       <c r="S112" t="inlineStr">
         <is>
-          <t>Nicolas Mahut</t>
+          <t>Marin Cilic</t>
         </is>
       </c>
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>21 Jan 1982</t>
-        </is>
-      </c>
-      <c r="W112" t="inlineStr"/>
-      <c r="X112" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+          <t>28 Sep 1988</t>
+        </is>
+      </c>
+      <c r="W112" t="inlineStr">
+        <is>
+          <t>1082</t>
+        </is>
+      </c>
+      <c r="X112" t="inlineStr"/>
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr"/>
       <c r="AA112" t="inlineStr"/>
@@ -10583,17 +10571,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
+          <t xml:space="preserve"> Sportski centar Visnjik, Zadar, Croatia</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Rebound Ace Synpave, Indoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tecnifibre X-One</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -10605,17 +10593,21 @@
         <v>6</v>
       </c>
       <c r="G113" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H113" t="n">
-        <v>13</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="I113" t="n">
+        <v>6</v>
+      </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
         <v>2</v>
       </c>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>8</v>
+      </c>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
@@ -10626,32 +10618,28 @@
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>MATCH 5</t>
+          <t>MATCH 4</t>
         </is>
       </c>
       <c r="R113" t="inlineStr"/>
       <c r="S113" t="inlineStr">
         <is>
-          <t>Marcel Granollers</t>
+          <t>Sam Querrey</t>
         </is>
       </c>
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>12 Apr 1986</t>
+          <t>07 Oct 1987</t>
         </is>
       </c>
       <c r="W113" t="inlineStr"/>
-      <c r="X113" t="inlineStr">
-        <is>
-          <t>1=</t>
-        </is>
-      </c>
+      <c r="X113" t="inlineStr"/>
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr"/>
       <c r="AA113" t="inlineStr"/>
@@ -10689,18 +10677,24 @@
         <v>6</v>
       </c>
       <c r="G114" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H114" t="n">
         <v>6</v>
       </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>7</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>6</v>
+      </c>
+      <c r="J114" t="n">
+        <v>6</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>11</v>
+      </c>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="inlineStr">
@@ -10710,7 +10704,7 @@
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 5</t>
         </is>
       </c>
       <c r="R114" t="inlineStr"/>
@@ -10732,7 +10726,7 @@
       </c>
       <c r="W114" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>98</t>
         </is>
       </c>
       <c r="X114" t="inlineStr"/>
@@ -10770,21 +10764,27 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G115" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
+        <v>7</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
         <v>3</v>
       </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>4</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>7</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>13</v>
+      </c>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="inlineStr">
@@ -10794,31 +10794,19 @@
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 5</t>
         </is>
       </c>
       <c r="R115" t="inlineStr"/>
       <c r="S115" t="inlineStr">
         <is>
-          <t>Steve Johnson</t>
+          <t>Franklin Tiafoe</t>
         </is>
       </c>
       <c r="T115" t="inlineStr"/>
-      <c r="U115" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="V115" t="inlineStr">
-        <is>
-          <t>24 Dec 1989</t>
-        </is>
-      </c>
-      <c r="W115" t="inlineStr">
-        <is>
-          <t>625</t>
-        </is>
-      </c>
+      <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
       <c r="X115" t="inlineStr"/>
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr"/>
@@ -10830,17 +10818,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14 Sep - 16 Sep 2018</t>
+          <t xml:space="preserve"> 23 Nov - 25 Nov 2018</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sportski centar Visnjik, Zadar, Croatia</t>
+          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -10850,25 +10838,23 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>WORLD GROUP  SEMIFINAL</t>
+          <t>DAVIS CUP  FINAL</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G116" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H116" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>7</v>
-      </c>
+      <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr">
@@ -10878,31 +10864,27 @@
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R116" t="inlineStr"/>
       <c r="S116" t="inlineStr">
         <is>
-          <t>Marin Cilic</t>
+          <t>Jeremy Chardy</t>
         </is>
       </c>
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>28 Sep 1988</t>
-        </is>
-      </c>
-      <c r="W116" t="inlineStr">
-        <is>
-          <t>1083</t>
-        </is>
-      </c>
+          <t>12 Feb 1987</t>
+        </is>
+      </c>
+      <c r="W116" t="inlineStr"/>
       <c r="X116" t="inlineStr"/>
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr"/>
@@ -10914,17 +10896,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14 Sep - 16 Sep 2018</t>
+          <t xml:space="preserve"> 23 Nov - 25 Nov 2018</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sportski centar Visnjik, Zadar, Croatia</t>
+          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -10934,14 +10916,14 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>WORLD GROUP  SEMIFINAL</t>
+          <t>DAVIS CUP  FINAL</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G117" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H117" t="n">
         <v>6</v>
@@ -10950,9 +10932,7 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>5</v>
-      </c>
+      <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="inlineStr">
@@ -10962,19 +10942,31 @@
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R117" t="inlineStr"/>
       <c r="S117" t="inlineStr">
         <is>
-          <t>Franklin Tiafoe</t>
+          <t>Borna Coric</t>
         </is>
       </c>
       <c r="T117" t="inlineStr"/>
-      <c r="U117" t="inlineStr"/>
-      <c r="V117" t="inlineStr"/>
-      <c r="W117" t="inlineStr"/>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>CROATIA</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>14 Nov 1996</t>
+        </is>
+      </c>
+      <c r="W117" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
       <c r="X117" t="inlineStr"/>
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr"/>
@@ -10986,17 +10978,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14 Sep - 16 Sep 2018</t>
+          <t xml:space="preserve"> 23 Nov - 25 Nov 2018</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sportski centar Visnjik, Zadar, Croatia</t>
+          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -11006,35 +10998,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>WORLD GROUP  SEMIFINAL</t>
+          <t>DAVIS CUP  FINAL</t>
         </is>
       </c>
       <c r="F118" t="n">
+        <v>3</v>
+      </c>
+      <c r="G118" t="n">
         <v>5</v>
       </c>
-      <c r="G118" t="n">
-        <v>6</v>
-      </c>
       <c r="H118" t="n">
-        <v>6</v>
-      </c>
-      <c r="I118" t="n">
-        <v>7</v>
-      </c>
-      <c r="J118" t="n">
-        <v>6</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>6</v>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
-        <v>7</v>
-      </c>
-      <c r="O118" t="n">
-        <v>5</v>
-      </c>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr">
         <is>
           <t>PLAYED &amp; COMPLETED</t>
@@ -11042,47 +11024,31 @@
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R118" t="inlineStr"/>
       <c r="S118" t="inlineStr">
         <is>
-          <t>Ivan Dodig</t>
-        </is>
-      </c>
-      <c r="T118" t="inlineStr">
-        <is>
-          <t>Mate Pavic</t>
-        </is>
-      </c>
+          <t>Jo-Wilfried Tsonga</t>
+        </is>
+      </c>
+      <c r="T118" t="inlineStr"/>
       <c r="U118" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>02 Jan 1985</t>
+          <t>17 Apr 1985</t>
         </is>
       </c>
       <c r="W118" t="inlineStr"/>
-      <c r="X118" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="Y118" t="inlineStr">
-        <is>
-          <t>04 Jul 1993</t>
-        </is>
-      </c>
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="inlineStr"/>
-      <c r="AA118" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="AA118" t="inlineStr"/>
       <c r="AB118" t="n">
         <v>2018</v>
       </c>
@@ -11090,17 +11056,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14 Sep - 16 Sep 2018</t>
+          <t xml:space="preserve"> 23 Nov - 25 Nov 2018</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sportski centar Visnjik, Zadar, Croatia</t>
+          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -11110,35 +11076,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>WORLD GROUP  SEMIFINAL</t>
+          <t>DAVIS CUP  FINAL</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G119" t="n">
         <v>7</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>6</v>
-      </c>
-      <c r="J119" t="n">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>8</v>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
-        <v>5</v>
-      </c>
-      <c r="O119" t="n">
-        <v>7</v>
-      </c>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr">
         <is>
           <t>PLAYED &amp; COMPLETED</t>
@@ -11146,37 +11102,33 @@
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R119" t="inlineStr"/>
       <c r="S119" t="inlineStr">
         <is>
-          <t>Mike Bryan</t>
-        </is>
-      </c>
-      <c r="T119" t="inlineStr">
-        <is>
-          <t>Ryan Harrison</t>
-        </is>
-      </c>
+          <t>Marin Cilic</t>
+        </is>
+      </c>
+      <c r="T119" t="inlineStr"/>
       <c r="U119" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>29 Apr 1978</t>
-        </is>
-      </c>
-      <c r="W119" t="inlineStr"/>
+          <t>28 Sep 1988</t>
+        </is>
+      </c>
+      <c r="W119" t="inlineStr">
+        <is>
+          <t>1082</t>
+        </is>
+      </c>
       <c r="X119" t="inlineStr"/>
-      <c r="Y119" t="inlineStr">
-        <is>
-          <t>07 May 1992</t>
-        </is>
-      </c>
+      <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr"/>
       <c r="AA119" t="inlineStr"/>
       <c r="AB119" t="n">
@@ -11186,17 +11138,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14 Sep - 16 Sep 2018</t>
+          <t xml:space="preserve"> 23 Nov - 25 Nov 2018</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sportski centar Visnjik, Zadar, Croatia</t>
+          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -11206,11 +11158,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>WORLD GROUP  SEMIFINAL</t>
+          <t>DAVIS CUP  FINAL</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G120" t="n">
         <v>6</v>
@@ -11219,17 +11171,15 @@
         <v>3</v>
       </c>
       <c r="I120" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>7</v>
       </c>
-      <c r="L120" t="n">
-        <v>6</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr">
         <is>
@@ -11238,35 +11188,51 @@
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>MATCH 4</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R120" t="inlineStr"/>
       <c r="S120" t="inlineStr">
         <is>
-          <t>Marin Cilic</t>
-        </is>
-      </c>
-      <c r="T120" t="inlineStr"/>
+          <t>Pierre-Hugues Herbert</t>
+        </is>
+      </c>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>Nicolas Mahut</t>
+        </is>
+      </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>28 Sep 1988</t>
+          <t>18 Mar 1991</t>
         </is>
       </c>
       <c r="W120" t="inlineStr">
         <is>
-          <t>1083</t>
-        </is>
-      </c>
-      <c r="X120" t="inlineStr"/>
-      <c r="Y120" t="inlineStr"/>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="X120" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="Y120" t="inlineStr">
+        <is>
+          <t>21 Jan 1982</t>
+        </is>
+      </c>
       <c r="Z120" t="inlineStr"/>
-      <c r="AA120" t="inlineStr"/>
+      <c r="AA120" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="AB120" t="n">
         <v>2018</v>
       </c>
@@ -11274,17 +11240,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14 Sep - 16 Sep 2018</t>
+          <t xml:space="preserve"> 23 Nov - 25 Nov 2018</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sportski centar Visnjik, Zadar, Croatia</t>
+          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -11294,14 +11260,14 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>WORLD GROUP  SEMIFINAL</t>
+          <t>DAVIS CUP  FINAL</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G121" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H121" t="n">
         <v>6</v>
@@ -11310,14 +11276,12 @@
         <v>6</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>2</v>
-      </c>
-      <c r="L121" t="n">
-        <v>8</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr"/>
-      <c r="N121" t="inlineStr"/>
+      <c r="N121" t="n">
+        <v>3</v>
+      </c>
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr">
         <is>
@@ -11326,31 +11290,47 @@
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>MATCH 4</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R121" t="inlineStr"/>
       <c r="S121" t="inlineStr">
         <is>
-          <t>Sam Querrey</t>
-        </is>
-      </c>
-      <c r="T121" t="inlineStr"/>
+          <t>Ivan Dodig</t>
+        </is>
+      </c>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>Mate Pavic</t>
+        </is>
+      </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>07 Oct 1987</t>
+          <t>02 Jan 1985</t>
         </is>
       </c>
       <c r="W121" t="inlineStr"/>
-      <c r="X121" t="inlineStr"/>
-      <c r="Y121" t="inlineStr"/>
+      <c r="X121" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="Y121" t="inlineStr">
+        <is>
+          <t>04 Jul 1993</t>
+        </is>
+      </c>
       <c r="Z121" t="inlineStr"/>
-      <c r="AA121" t="inlineStr"/>
+      <c r="AA121" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="AB121" t="n">
         <v>2018</v>
       </c>
@@ -11358,17 +11338,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14 Sep - 16 Sep 2018</t>
+          <t xml:space="preserve"> 23 Nov - 25 Nov 2018</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sportski centar Visnjik, Zadar, Croatia</t>
+          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -11378,31 +11358,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>WORLD GROUP  SEMIFINAL</t>
+          <t>DAVIS CUP  FINAL</t>
         </is>
       </c>
       <c r="F122" t="n">
         <v>6</v>
       </c>
       <c r="G122" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H122" t="n">
-        <v>6</v>
-      </c>
-      <c r="I122" t="n">
-        <v>6</v>
-      </c>
-      <c r="J122" t="n">
-        <v>6</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>11</v>
-      </c>
+      <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr">
@@ -11412,32 +11386,36 @@
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>MATCH 5</t>
+          <t>MATCH 4</t>
         </is>
       </c>
       <c r="R122" t="inlineStr"/>
       <c r="S122" t="inlineStr">
         <is>
-          <t>Borna Coric</t>
+          <t>Lucas Pouille</t>
         </is>
       </c>
       <c r="T122" t="inlineStr"/>
       <c r="U122" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>14 Nov 1996</t>
+          <t>23 Feb 1994</t>
         </is>
       </c>
       <c r="W122" t="inlineStr">
         <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="X122" t="inlineStr"/>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="X122" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr"/>
       <c r="AA122" t="inlineStr"/>
@@ -11448,17 +11426,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14 Sep - 16 Sep 2018</t>
+          <t xml:space="preserve"> 23 Nov - 25 Nov 2018</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sportski centar Visnjik, Zadar, Croatia</t>
+          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -11468,31 +11446,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>WORLD GROUP  SEMIFINAL</t>
+          <t>DAVIS CUP  FINAL</t>
         </is>
       </c>
       <c r="F123" t="n">
         <v>7</v>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H123" t="n">
-        <v>7</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="n">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
         <v>7</v>
       </c>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>13</v>
-      </c>
+      <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="inlineStr">
@@ -11502,19 +11474,31 @@
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>MATCH 5</t>
+          <t>MATCH 4</t>
         </is>
       </c>
       <c r="R123" t="inlineStr"/>
       <c r="S123" t="inlineStr">
         <is>
-          <t>Franklin Tiafoe</t>
+          <t>Marin Cilic</t>
         </is>
       </c>
       <c r="T123" t="inlineStr"/>
-      <c r="U123" t="inlineStr"/>
-      <c r="V123" t="inlineStr"/>
-      <c r="W123" t="inlineStr"/>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>CROATIA</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>28 Sep 1988</t>
+        </is>
+      </c>
+      <c r="W123" t="inlineStr">
+        <is>
+          <t>1082</t>
+        </is>
+      </c>
       <c r="X123" t="inlineStr"/>
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr"/>
@@ -11523,698 +11507,6 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 23 Nov - 25 Nov 2018</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>DAVIS CUP  FINAL</t>
-        </is>
-      </c>
-      <c r="F124" t="n">
-        <v>2</v>
-      </c>
-      <c r="G124" t="n">
-        <v>5</v>
-      </c>
-      <c r="H124" t="n">
-        <v>4</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="inlineStr"/>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr">
-        <is>
-          <t>PLAYED &amp; COMPLETED</t>
-        </is>
-      </c>
-      <c r="Q124" t="inlineStr">
-        <is>
-          <t>MATCH 1</t>
-        </is>
-      </c>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="inlineStr">
-        <is>
-          <t>Jeremy Chardy</t>
-        </is>
-      </c>
-      <c r="T124" t="inlineStr"/>
-      <c r="U124" t="inlineStr">
-        <is>
-          <t>FRANCE</t>
-        </is>
-      </c>
-      <c r="V124" t="inlineStr">
-        <is>
-          <t>12 Feb 1987</t>
-        </is>
-      </c>
-      <c r="W124" t="inlineStr"/>
-      <c r="X124" t="inlineStr"/>
-      <c r="Y124" t="inlineStr"/>
-      <c r="Z124" t="inlineStr"/>
-      <c r="AA124" t="inlineStr"/>
-      <c r="AB124" t="n">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 23 Nov - 25 Nov 2018</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>DAVIS CUP  FINAL</t>
-        </is>
-      </c>
-      <c r="F125" t="n">
-        <v>6</v>
-      </c>
-      <c r="G125" t="n">
-        <v>7</v>
-      </c>
-      <c r="H125" t="n">
-        <v>6</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="inlineStr"/>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr">
-        <is>
-          <t>PLAYED &amp; COMPLETED</t>
-        </is>
-      </c>
-      <c r="Q125" t="inlineStr">
-        <is>
-          <t>MATCH 1</t>
-        </is>
-      </c>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="inlineStr">
-        <is>
-          <t>Borna Coric</t>
-        </is>
-      </c>
-      <c r="T125" t="inlineStr"/>
-      <c r="U125" t="inlineStr">
-        <is>
-          <t>CROATIA</t>
-        </is>
-      </c>
-      <c r="V125" t="inlineStr">
-        <is>
-          <t>14 Nov 1996</t>
-        </is>
-      </c>
-      <c r="W125" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="X125" t="inlineStr"/>
-      <c r="Y125" t="inlineStr"/>
-      <c r="Z125" t="inlineStr"/>
-      <c r="AA125" t="inlineStr"/>
-      <c r="AB125" t="n">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 23 Nov - 25 Nov 2018</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>DAVIS CUP  FINAL</t>
-        </is>
-      </c>
-      <c r="F126" t="n">
-        <v>3</v>
-      </c>
-      <c r="G126" t="n">
-        <v>5</v>
-      </c>
-      <c r="H126" t="n">
-        <v>4</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="inlineStr"/>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr">
-        <is>
-          <t>PLAYED &amp; COMPLETED</t>
-        </is>
-      </c>
-      <c r="Q126" t="inlineStr">
-        <is>
-          <t>MATCH 2</t>
-        </is>
-      </c>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="inlineStr">
-        <is>
-          <t>Jo-Wilfried Tsonga</t>
-        </is>
-      </c>
-      <c r="T126" t="inlineStr"/>
-      <c r="U126" t="inlineStr">
-        <is>
-          <t>FRANCE</t>
-        </is>
-      </c>
-      <c r="V126" t="inlineStr">
-        <is>
-          <t>17 Apr 1985</t>
-        </is>
-      </c>
-      <c r="W126" t="inlineStr"/>
-      <c r="X126" t="inlineStr"/>
-      <c r="Y126" t="inlineStr"/>
-      <c r="Z126" t="inlineStr"/>
-      <c r="AA126" t="inlineStr"/>
-      <c r="AB126" t="n">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 23 Nov - 25 Nov 2018</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>DAVIS CUP  FINAL</t>
-        </is>
-      </c>
-      <c r="F127" t="n">
-        <v>6</v>
-      </c>
-      <c r="G127" t="n">
-        <v>7</v>
-      </c>
-      <c r="H127" t="n">
-        <v>6</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="inlineStr"/>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr">
-        <is>
-          <t>PLAYED &amp; COMPLETED</t>
-        </is>
-      </c>
-      <c r="Q127" t="inlineStr">
-        <is>
-          <t>MATCH 2</t>
-        </is>
-      </c>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="inlineStr">
-        <is>
-          <t>Marin Cilic</t>
-        </is>
-      </c>
-      <c r="T127" t="inlineStr"/>
-      <c r="U127" t="inlineStr">
-        <is>
-          <t>CROATIA</t>
-        </is>
-      </c>
-      <c r="V127" t="inlineStr">
-        <is>
-          <t>28 Sep 1988</t>
-        </is>
-      </c>
-      <c r="W127" t="inlineStr">
-        <is>
-          <t>1083</t>
-        </is>
-      </c>
-      <c r="X127" t="inlineStr"/>
-      <c r="Y127" t="inlineStr"/>
-      <c r="Z127" t="inlineStr"/>
-      <c r="AA127" t="inlineStr"/>
-      <c r="AB127" t="n">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 23 Nov - 25 Nov 2018</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>DAVIS CUP  FINAL</t>
-        </is>
-      </c>
-      <c r="F128" t="n">
-        <v>6</v>
-      </c>
-      <c r="G128" t="n">
-        <v>6</v>
-      </c>
-      <c r="H128" t="n">
-        <v>3</v>
-      </c>
-      <c r="I128" t="n">
-        <v>7</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
-        <v>7</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr">
-        <is>
-          <t>PLAYED &amp; COMPLETED</t>
-        </is>
-      </c>
-      <c r="Q128" t="inlineStr">
-        <is>
-          <t>MATCH 3</t>
-        </is>
-      </c>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="inlineStr">
-        <is>
-          <t>Pierre-Hugues Herbert</t>
-        </is>
-      </c>
-      <c r="T128" t="inlineStr">
-        <is>
-          <t>Nicolas Mahut</t>
-        </is>
-      </c>
-      <c r="U128" t="inlineStr">
-        <is>
-          <t>FRANCE</t>
-        </is>
-      </c>
-      <c r="V128" t="inlineStr">
-        <is>
-          <t>18 Mar 1991</t>
-        </is>
-      </c>
-      <c r="W128" t="inlineStr">
-        <is>
-          <t>133</t>
-        </is>
-      </c>
-      <c r="X128" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="Y128" t="inlineStr">
-        <is>
-          <t>21 Jan 1982</t>
-        </is>
-      </c>
-      <c r="Z128" t="inlineStr"/>
-      <c r="AA128" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="AB128" t="n">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 23 Nov - 25 Nov 2018</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>DAVIS CUP  FINAL</t>
-        </is>
-      </c>
-      <c r="F129" t="n">
-        <v>4</v>
-      </c>
-      <c r="G129" t="n">
-        <v>4</v>
-      </c>
-      <c r="H129" t="n">
-        <v>6</v>
-      </c>
-      <c r="I129" t="n">
-        <v>6</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
-        <v>3</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr">
-        <is>
-          <t>PLAYED &amp; COMPLETED</t>
-        </is>
-      </c>
-      <c r="Q129" t="inlineStr">
-        <is>
-          <t>MATCH 3</t>
-        </is>
-      </c>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="inlineStr">
-        <is>
-          <t>Ivan Dodig</t>
-        </is>
-      </c>
-      <c r="T129" t="inlineStr">
-        <is>
-          <t>Mate Pavic</t>
-        </is>
-      </c>
-      <c r="U129" t="inlineStr">
-        <is>
-          <t>CROATIA</t>
-        </is>
-      </c>
-      <c r="V129" t="inlineStr">
-        <is>
-          <t>02 Jan 1985</t>
-        </is>
-      </c>
-      <c r="W129" t="inlineStr"/>
-      <c r="X129" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="Y129" t="inlineStr">
-        <is>
-          <t>04 Jul 1993</t>
-        </is>
-      </c>
-      <c r="Z129" t="inlineStr"/>
-      <c r="AA129" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AB129" t="n">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 23 Nov - 25 Nov 2018</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>DAVIS CUP  FINAL</t>
-        </is>
-      </c>
-      <c r="F130" t="n">
-        <v>6</v>
-      </c>
-      <c r="G130" t="n">
-        <v>3</v>
-      </c>
-      <c r="H130" t="n">
-        <v>3</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>3</v>
-      </c>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="inlineStr"/>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr">
-        <is>
-          <t>PLAYED &amp; COMPLETED</t>
-        </is>
-      </c>
-      <c r="Q130" t="inlineStr">
-        <is>
-          <t>MATCH 4</t>
-        </is>
-      </c>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="inlineStr">
-        <is>
-          <t>Lucas Pouille</t>
-        </is>
-      </c>
-      <c r="T130" t="inlineStr"/>
-      <c r="U130" t="inlineStr">
-        <is>
-          <t>FRANCE</t>
-        </is>
-      </c>
-      <c r="V130" t="inlineStr">
-        <is>
-          <t>23 Feb 1994</t>
-        </is>
-      </c>
-      <c r="W130" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="X130" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="Y130" t="inlineStr"/>
-      <c r="Z130" t="inlineStr"/>
-      <c r="AA130" t="inlineStr"/>
-      <c r="AB130" t="n">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 23 Nov - 25 Nov 2018</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>DAVIS CUP  FINAL</t>
-        </is>
-      </c>
-      <c r="F131" t="n">
-        <v>7</v>
-      </c>
-      <c r="G131" t="n">
-        <v>6</v>
-      </c>
-      <c r="H131" t="n">
-        <v>6</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>7</v>
-      </c>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="inlineStr"/>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr">
-        <is>
-          <t>PLAYED &amp; COMPLETED</t>
-        </is>
-      </c>
-      <c r="Q131" t="inlineStr">
-        <is>
-          <t>MATCH 4</t>
-        </is>
-      </c>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="inlineStr">
-        <is>
-          <t>Marin Cilic</t>
-        </is>
-      </c>
-      <c r="T131" t="inlineStr"/>
-      <c r="U131" t="inlineStr">
-        <is>
-          <t>CROATIA</t>
-        </is>
-      </c>
-      <c r="V131" t="inlineStr">
-        <is>
-          <t>28 Sep 1988</t>
-        </is>
-      </c>
-      <c r="W131" t="inlineStr">
-        <is>
-          <t>1083</t>
-        </is>
-      </c>
-      <c r="X131" t="inlineStr"/>
-      <c r="Y131" t="inlineStr"/>
-      <c r="Z131" t="inlineStr"/>
-      <c r="AA131" t="inlineStr"/>
-      <c r="AB131" t="n">
-        <v>2018</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/davis matches/davis_2018.xlsx
+++ b/data/davis matches/davis_2018.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB123"/>
+  <dimension ref="A1:AB121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3567,17 +3567,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National Tennis Centre, Astana, Kazakhstan</t>
+          <t xml:space="preserve"> Sportska Dvorana Gradski Vrt, Osijek, Croatia</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - GreenSet Grand Prix Cup, Indoor</t>
+          <t xml:space="preserve"> Clay - Clay, Indoor</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3586,22 +3586,20 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I34" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>9</v>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -3615,37 +3613,29 @@
           <t>MATCH 1</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium Fast</t>
-        </is>
-      </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr">
         <is>
-          <t>Dmitry Popko</t>
+          <t>Borna Coric</t>
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>KAZAKHSTAN</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>24 Oct 1996</t>
+          <t>14 Nov 1996</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>181</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>514</t>
-        </is>
-      </c>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
@@ -3661,17 +3651,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National Tennis Centre, Astana, Kazakhstan</t>
+          <t xml:space="preserve"> Sportska Dvorana Gradski Vrt, Osijek, Croatia</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - GreenSet Grand Prix Cup, Indoor</t>
+          <t xml:space="preserve"> Clay - Clay, Indoor</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3680,22 +3670,20 @@
         </is>
       </c>
       <c r="F35" t="n">
+        <v>6</v>
+      </c>
+      <c r="G35" t="n">
         <v>2</v>
       </c>
-      <c r="G35" t="n">
-        <v>6</v>
-      </c>
       <c r="H35" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>7</v>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -3709,33 +3697,33 @@
           <t>MATCH 1</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium Fast</t>
-        </is>
-      </c>
+      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr">
         <is>
-          <t>Henri Laaksonen</t>
+          <t>Vasek Pospisil</t>
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>SWITZERLAND</t>
+          <t>CANADA</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>31 Mar 1992</t>
+          <t>23 Jun 1990</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>827</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr"/>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>1385=</t>
+        </is>
+      </c>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
@@ -3751,17 +3739,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National Tennis Centre, Astana, Kazakhstan</t>
+          <t xml:space="preserve"> Sportska Dvorana Gradski Vrt, Osijek, Croatia</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - GreenSet Grand Prix Cup, Indoor</t>
+          <t xml:space="preserve"> Clay - Clay, Indoor</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3770,17 +3758,15 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G36" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H36" t="n">
-        <v>6</v>
-      </c>
-      <c r="I36" t="n">
-        <v>6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
@@ -3797,32 +3783,24 @@
           <t>MATCH 2</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium Fast</t>
-        </is>
-      </c>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr">
         <is>
-          <t>Mikhail Kukushkin</t>
+          <t>Viktor Galovic</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>KAZAKHSTAN</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>26 Dec 1987</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
-      </c>
+          <t>19 Sep 1990</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
@@ -3839,17 +3817,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National Tennis Centre, Astana, Kazakhstan</t>
+          <t xml:space="preserve"> Sportska Dvorana Gradski Vrt, Osijek, Croatia</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - GreenSet Grand Prix Cup, Indoor</t>
+          <t xml:space="preserve"> Clay - Clay, Indoor</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3861,14 +3839,12 @@
         <v>6</v>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
@@ -3885,37 +3861,29 @@
           <t>MATCH 2</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium Fast</t>
-        </is>
-      </c>
+      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr">
         <is>
-          <t>Adrian Bodmer</t>
+          <t>Denis Shapovalov</t>
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>SWITZERLAND</t>
+          <t>CANADA</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>06 Mar 1995</t>
+          <t>15 Apr 1999</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>887</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>1992=</t>
-        </is>
-      </c>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
@@ -3931,17 +3899,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National Tennis Centre, Astana, Kazakhstan</t>
+          <t xml:space="preserve"> Sportska Dvorana Gradski Vrt, Osijek, Croatia</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - GreenSet Grand Prix Cup, Indoor</t>
+          <t xml:space="preserve"> Clay - Clay, Indoor</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3950,16 +3918,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I38" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J38" t="n">
         <v>6</v>
@@ -3967,9 +3935,7 @@
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
-        <v>5</v>
-      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
@@ -3981,42 +3947,42 @@
           <t>MATCH 3</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium Fast</t>
-        </is>
-      </c>
+      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr">
         <is>
-          <t>Timur Khabibulin</t>
+          <t>Marin Cilic</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>Aleksandr Nedovyesov</t>
+          <t>Ivan Dodig</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>KAZAKHSTAN</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>02 Aug 1995</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr"/>
+          <t>28 Sep 1988</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>1082</t>
+        </is>
+      </c>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>15 Feb 1987</t>
+          <t>02 Jan 1985</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AB38" t="n">
@@ -4031,17 +3997,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National Tennis Centre, Astana, Kazakhstan</t>
+          <t xml:space="preserve"> Sportska Dvorana Gradski Vrt, Osijek, Croatia</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - GreenSet Grand Prix Cup, Indoor</t>
+          <t xml:space="preserve"> Clay - Clay, Indoor</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -4050,26 +4016,24 @@
         </is>
       </c>
       <c r="F39" t="n">
+        <v>6</v>
+      </c>
+      <c r="G39" t="n">
+        <v>6</v>
+      </c>
+      <c r="H39" t="n">
         <v>4</v>
       </c>
-      <c r="G39" t="n">
-        <v>4</v>
-      </c>
-      <c r="H39" t="n">
-        <v>6</v>
-      </c>
       <c r="I39" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
-        <v>7</v>
-      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
@@ -4081,50 +4045,42 @@
           <t>MATCH 3</t>
         </is>
       </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium Fast</t>
-        </is>
-      </c>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr">
         <is>
-          <t>Marc-Andrea Huesler</t>
+          <t>Daniel Nestor</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>Luca Margaroli</t>
+          <t>Vasek Pospisil</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>SWITZERLAND</t>
+          <t>CANADA</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>24 Jun 1996</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>168</t>
-        </is>
-      </c>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>279</t>
-        </is>
-      </c>
+          <t>04 Sep 1972</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>15 Feb 1992</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr"/>
+          <t>23 Jun 1990</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>1385=</t>
         </is>
       </c>
       <c r="AB39" t="n">
@@ -4139,17 +4095,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National Tennis Centre, Astana, Kazakhstan</t>
+          <t xml:space="preserve"> Sportska Dvorana Gradski Vrt, Osijek, Croatia</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - GreenSet Grand Prix Cup, Indoor</t>
+          <t xml:space="preserve"> Clay - Clay, Indoor</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -4158,12 +4114,14 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -4181,28 +4139,28 @@
           <t>MATCH 4</t>
         </is>
       </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium Fast</t>
-        </is>
-      </c>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr">
         <is>
-          <t>Roman Khassanov</t>
+          <t>Borna Coric</t>
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>KAZAKHSTAN</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>07 Sep 1996</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr"/>
+          <t>14 Nov 1996</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
@@ -4219,17 +4177,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National Tennis Centre, Astana, Kazakhstan</t>
+          <t xml:space="preserve"> Sportska Dvorana Gradski Vrt, Osijek, Croatia</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - GreenSet Grand Prix Cup, Indoor</t>
+          <t xml:space="preserve"> Clay - Clay, Indoor</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -4238,12 +4196,14 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G41" t="n">
-        <v>6</v>
-      </c>
-      <c r="H41" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -4261,37 +4221,29 @@
           <t>MATCH 4</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium Fast</t>
-        </is>
-      </c>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr">
         <is>
-          <t>Marc-Andrea Huesler</t>
+          <t>Denis Shapovalov</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>SWITZERLAND</t>
+          <t>CANADA</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>24 Jun 1996</t>
+          <t>15 Apr 1999</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>168</t>
-        </is>
-      </c>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>279</t>
-        </is>
-      </c>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
@@ -4307,17 +4259,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National Tennis Centre, Astana, Kazakhstan</t>
+          <t xml:space="preserve"> Sportski Centar Cair, Nis, Serbia</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - GreenSet Grand Prix Cup, Indoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Wilson Australian Open</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -4329,12 +4281,14 @@
         <v>7</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
-        <v>10</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4</v>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
         <v>7</v>
@@ -4350,38 +4304,34 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>MATCH 5</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium Fast</t>
-        </is>
-      </c>
+          <t>MATCH 1</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr">
         <is>
-          <t>Dmitry Popko</t>
+          <t>Laslo Djere</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>KAZAKHSTAN</t>
+          <t>SERBIA</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>24 Oct 1996</t>
+          <t>02 Jun 1995</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>109</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>540</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr"/>
@@ -4399,17 +4349,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National Tennis Centre, Astana, Kazakhstan</t>
+          <t xml:space="preserve"> Sportski Centar Cair, Nis, Serbia</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - GreenSet Grand Prix Cup, Indoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Wilson Australian Open</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -4424,12 +4374,14 @@
         <v>6</v>
       </c>
       <c r="H43" t="n">
-        <v>6</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="I43" t="n">
+        <v>6</v>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
@@ -4442,40 +4394,28 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>MATCH 5</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium Fast</t>
-        </is>
-      </c>
+          <t>MATCH 1</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr">
         <is>
-          <t>Adrian Bodmer</t>
+          <t>Sam Querrey</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>SWITZERLAND</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>06 Mar 1995</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>887</t>
-        </is>
-      </c>
-      <c r="X43" t="inlineStr">
-        <is>
-          <t>1992=</t>
-        </is>
-      </c>
+          <t>07 Oct 1987</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
@@ -4491,17 +4431,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sportska Dvorana Gradski Vrt, Osijek, Croatia</t>
+          <t xml:space="preserve"> Sportski Centar Cair, Nis, Serbia</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Clay, Indoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
+          <t xml:space="preserve"> Wilson Australian Open</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -4510,23 +4450,29 @@
         </is>
       </c>
       <c r="F44" t="n">
+        <v>4</v>
+      </c>
+      <c r="G44" t="n">
+        <v>7</v>
+      </c>
+      <c r="H44" t="n">
         <v>3</v>
       </c>
-      <c r="G44" t="n">
-        <v>6</v>
-      </c>
-      <c r="H44" t="n">
-        <v>6</v>
-      </c>
       <c r="I44" t="n">
         <v>6</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>6</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>9</v>
+      </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
+      <c r="O44" t="n">
+        <v>4</v>
+      </c>
       <c r="P44" t="inlineStr">
         <is>
           <t>PLAYED &amp; COMPLETED</t>
@@ -4534,32 +4480,36 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr">
         <is>
-          <t>Borna Coric</t>
+          <t>Dusan Lajovic</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>SERBIA</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>14 Nov 1996</t>
+          <t>30 Jun 1990</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="X44" t="inlineStr"/>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>547=</t>
+        </is>
+      </c>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
@@ -4575,17 +4525,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sportska Dvorana Gradski Vrt, Osijek, Croatia</t>
+          <t xml:space="preserve"> Sportski Centar Cair, Nis, Serbia</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Clay, Indoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
+          <t xml:space="preserve"> Wilson Australian Open</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -4597,20 +4547,26 @@
         <v>6</v>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H45" t="n">
+        <v>6</v>
+      </c>
+      <c r="I45" t="n">
         <v>3</v>
       </c>
-      <c r="I45" t="n">
-        <v>2</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>7</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>7</v>
+      </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
+      <c r="O45" t="n">
+        <v>7</v>
+      </c>
       <c r="P45" t="inlineStr">
         <is>
           <t>PLAYED &amp; COMPLETED</t>
@@ -4618,36 +4574,32 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr">
         <is>
-          <t>Vasek Pospisil</t>
+          <t>John Isner</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>CANADA</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>23 Jun 1990</t>
+          <t>26 Apr 1985</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="X45" t="inlineStr">
-        <is>
-          <t>1385=</t>
-        </is>
-      </c>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
@@ -4663,17 +4615,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sportska Dvorana Gradski Vrt, Osijek, Croatia</t>
+          <t xml:space="preserve"> Sportski Centar Cair, Nis, Serbia</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Clay, Indoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
+          <t xml:space="preserve"> Wilson Australian Open</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -4682,17 +4634,21 @@
         </is>
       </c>
       <c r="F46" t="n">
+        <v>7</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+      <c r="I46" t="n">
         <v>4</v>
       </c>
-      <c r="G46" t="n">
-        <v>4</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>7</v>
+      </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
@@ -4704,31 +4660,51 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr">
         <is>
-          <t>Viktor Galovic</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr"/>
+          <t>Nikola Milojevic</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Miljan Zekic</t>
+        </is>
+      </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>SERBIA</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>19 Sep 1990</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr"/>
+          <t>19 Jun 1995</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>1093=</t>
+        </is>
+      </c>
       <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>12 Jul 1988</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>1483=</t>
+        </is>
+      </c>
       <c r="AB46" t="n">
         <v>2018</v>
       </c>
@@ -4741,17 +4717,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sportska Dvorana Gradski Vrt, Osijek, Croatia</t>
+          <t xml:space="preserve"> Sportski Centar Cair, Nis, Serbia</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Clay, Indoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
+          <t xml:space="preserve"> Wilson Australian Open</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -4766,11 +4742,15 @@
         <v>6</v>
       </c>
       <c r="H47" t="n">
-        <v>6</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="I47" t="n">
+        <v>6</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>3</v>
+      </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
@@ -4782,34 +4762,42 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr">
         <is>
-          <t>Denis Shapovalov</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr"/>
+          <t>Ryan Harrison</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Steve Johnson</t>
+        </is>
+      </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>CANADA</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>15 Apr 1999</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
+          <t>07 May 1992</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>24 Dec 1989</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>623</t>
+        </is>
+      </c>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="n">
         <v>2018</v>
@@ -4823,17 +4811,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sportska Dvorana Gradski Vrt, Osijek, Croatia</t>
+          <t xml:space="preserve"> Sportski Centar Cair, Nis, Serbia</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Clay, Indoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
+          <t xml:space="preserve"> Wilson Australian Open</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4842,20 +4830,14 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
-      </c>
-      <c r="H48" t="n">
-        <v>6</v>
-      </c>
-      <c r="I48" t="n">
-        <v>7</v>
-      </c>
-      <c r="J48" t="n">
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
@@ -4868,47 +4850,31 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 4</t>
         </is>
       </c>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr">
         <is>
-          <t>Marin Cilic</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>Ivan Dodig</t>
-        </is>
-      </c>
+          <t>Pedja Krstin</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>SERBIA</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>28 Sep 1988</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>1082</t>
-        </is>
-      </c>
+          <t>03 Sep 1994</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr">
-        <is>
-          <t>02 Jan 1985</t>
-        </is>
-      </c>
+      <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr"/>
-      <c r="AA48" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
+      <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="n">
         <v>2018</v>
       </c>
@@ -4921,17 +4887,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sportska Dvorana Gradski Vrt, Osijek, Croatia</t>
+          <t xml:space="preserve"> Sportski Centar Cair, Nis, Serbia</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Clay, Indoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
+          <t xml:space="preserve"> Wilson Australian Open</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4940,20 +4906,14 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>6</v>
-      </c>
-      <c r="H49" t="n">
-        <v>4</v>
-      </c>
-      <c r="I49" t="n">
         <v>5</v>
       </c>
-      <c r="J49" t="n">
-        <v>2</v>
-      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
@@ -4966,47 +4926,35 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 4</t>
         </is>
       </c>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr">
         <is>
-          <t>Daniel Nestor</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>Vasek Pospisil</t>
-        </is>
-      </c>
+          <t>Steve Johnson</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>CANADA</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>04 Sep 1972</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr"/>
+          <t>24 Dec 1989</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>623</t>
+        </is>
+      </c>
       <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr">
-        <is>
-          <t>23 Jun 1990</t>
-        </is>
-      </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AA49" t="inlineStr">
-        <is>
-          <t>1385=</t>
-        </is>
-      </c>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="n">
         <v>2018</v>
       </c>
@@ -5019,17 +4967,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sportska Dvorana Gradski Vrt, Osijek, Croatia</t>
+          <t xml:space="preserve"> Country Hall du Sart-Tilman, Liège, Belgium</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Clay, Indoor</t>
+          <t xml:space="preserve"> Hard - Acrylic, Indoor</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
+          <t xml:space="preserve"> Tecnifibre X-One</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -5041,16 +4989,20 @@
         <v>6</v>
       </c>
       <c r="G50" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H50" t="n">
-        <v>6</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="I50" t="n">
+        <v>6</v>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
+      <c r="M50" t="n">
+        <v>7</v>
+      </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
@@ -5060,31 +5012,31 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>MATCH 4</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr"/>
+          <t>MATCH 1</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium Fast</t>
+        </is>
+      </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>Borna Coric</t>
+          <t>Ruben Bemelmans</t>
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>14 Nov 1996</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
+          <t>14 Jan 1988</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
@@ -5101,17 +5053,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sportska Dvorana Gradski Vrt, Osijek, Croatia</t>
+          <t xml:space="preserve"> Country Hall du Sart-Tilman, Liège, Belgium</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Clay, Indoor</t>
+          <t xml:space="preserve"> Hard - Acrylic, Indoor</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
+          <t xml:space="preserve"> Tecnifibre X-One</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -5123,16 +5075,20 @@
         <v>4</v>
       </c>
       <c r="G51" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H51" t="n">
-        <v>4</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3</v>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
@@ -5142,32 +5098,40 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>MATCH 4</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr"/>
+          <t>MATCH 1</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium Fast</t>
+        </is>
+      </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>Denis Shapovalov</t>
+          <t>Marton Fucsovics</t>
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>CANADA</t>
+          <t>HUNGARY</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>15 Apr 1999</t>
+          <t>08 Feb 1992</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="X51" t="inlineStr"/>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>541=</t>
+        </is>
+      </c>
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr"/>
@@ -5205,20 +5169,16 @@
         <v>6</v>
       </c>
       <c r="G52" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H52" t="n">
-        <v>7</v>
-      </c>
-      <c r="I52" t="n">
-        <v>6</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>7</v>
-      </c>
+      <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
@@ -5228,7 +5188,7 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -5238,7 +5198,7 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>Ruben Bemelmans</t>
+          <t>David Goffin</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
@@ -5249,11 +5209,19 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>14 Jan 1988</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
+          <t>07 Dec 1990</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>864=</t>
+        </is>
+      </c>
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
@@ -5291,20 +5259,16 @@
         <v>4</v>
       </c>
       <c r="G53" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H53" t="n">
-        <v>6</v>
-      </c>
-      <c r="I53" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>5</v>
-      </c>
+      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
@@ -5314,7 +5278,7 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -5324,7 +5288,7 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>Marton Fucsovics</t>
+          <t>Attila Balazs</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
@@ -5335,19 +5299,15 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>08 Feb 1992</t>
+          <t>27 Sep 1988</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="X53" t="inlineStr">
-        <is>
-          <t>541=</t>
-        </is>
-      </c>
+          <t>1079=</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr"/>
@@ -5382,19 +5342,25 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G54" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H54" t="n">
-        <v>6</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="I54" t="n">
+        <v>6</v>
+      </c>
+      <c r="J54" t="n">
+        <v>5</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>7</v>
+      </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
@@ -5404,7 +5370,7 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -5414,10 +5380,14 @@
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>David Goffin</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr"/>
+          <t>Ruben Bemelmans</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Joris De Loore</t>
+        </is>
+      </c>
       <c r="U54" t="inlineStr">
         <is>
           <t>BELGIUM</t>
@@ -5425,21 +5395,21 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>07 Dec 1990</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="X54" t="inlineStr">
-        <is>
-          <t>864=</t>
-        </is>
-      </c>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
+          <t>14 Jan 1988</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>21 Apr 1993</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
       <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="n">
         <v>2018</v>
@@ -5472,19 +5442,25 @@
         </is>
       </c>
       <c r="F55" t="n">
+        <v>6</v>
+      </c>
+      <c r="G55" t="n">
+        <v>6</v>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+      <c r="I55" t="n">
         <v>4</v>
       </c>
-      <c r="G55" t="n">
-        <v>4</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>7</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
@@ -5494,7 +5470,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -5507,7 +5483,11 @@
           <t>Attila Balazs</t>
         </is>
       </c>
-      <c r="T55" t="inlineStr"/>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Marton Fucsovics</t>
+        </is>
+      </c>
       <c r="U55" t="inlineStr">
         <is>
           <t>HUNGARY</t>
@@ -5524,9 +5504,21 @@
         </is>
       </c>
       <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
-      <c r="AA55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>08 Feb 1992</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>541=</t>
+        </is>
+      </c>
       <c r="AB55" t="n">
         <v>2018</v>
       </c>
@@ -5558,25 +5550,21 @@
         </is>
       </c>
       <c r="F56" t="n">
+        <v>7</v>
+      </c>
+      <c r="G56" t="n">
+        <v>6</v>
+      </c>
+      <c r="H56" t="n">
         <v>3</v>
       </c>
-      <c r="G56" t="n">
-        <v>4</v>
-      </c>
-      <c r="H56" t="n">
-        <v>7</v>
-      </c>
       <c r="I56" t="n">
         <v>6</v>
       </c>
-      <c r="J56" t="n">
-        <v>5</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>7</v>
-      </c>
+      <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
@@ -5586,7 +5574,7 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 4</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -5596,14 +5584,10 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>Ruben Bemelmans</t>
-        </is>
-      </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>Joris De Loore</t>
-        </is>
-      </c>
+          <t>David Goffin</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
           <t>BELGIUM</t>
@@ -5611,21 +5595,21 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>14 Jan 1988</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr">
-        <is>
-          <t>21 Apr 1993</t>
-        </is>
-      </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
+          <t>07 Dec 1990</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>864=</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="n">
         <v>2018</v>
@@ -5658,25 +5642,21 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G57" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H57" t="n">
         <v>6</v>
       </c>
       <c r="I57" t="n">
-        <v>4</v>
-      </c>
-      <c r="J57" t="n">
-        <v>7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>2</v>
-      </c>
+      <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
@@ -5686,7 +5666,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 4</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -5696,14 +5676,10 @@
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>Attila Balazs</t>
-        </is>
-      </c>
-      <c r="T57" t="inlineStr">
-        <is>
           <t>Marton Fucsovics</t>
         </is>
       </c>
+      <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
           <t>HUNGARY</t>
@@ -5711,30 +5687,22 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>27 Sep 1988</t>
+          <t>08 Feb 1992</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>1079=</t>
-        </is>
-      </c>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr">
-        <is>
-          <t>08 Feb 1992</t>
-        </is>
-      </c>
-      <c r="Z57" t="inlineStr">
-        <is>
           <t>81</t>
         </is>
       </c>
-      <c r="AA57" t="inlineStr">
+      <c r="X57" t="inlineStr">
         <is>
           <t>541=</t>
         </is>
       </c>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="n">
         <v>2018</v>
       </c>
@@ -5766,20 +5734,18 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G58" t="n">
         <v>6</v>
       </c>
-      <c r="H58" t="n">
-        <v>3</v>
-      </c>
-      <c r="I58" t="n">
-        <v>6</v>
-      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>3</v>
+      </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
@@ -5790,7 +5756,7 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>MATCH 4</t>
+          <t>MATCH 5</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -5800,7 +5766,7 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>David Goffin</t>
+          <t>Julien Cagnina</t>
         </is>
       </c>
       <c r="T58" t="inlineStr"/>
@@ -5811,19 +5777,11 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>07 Dec 1990</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="X58" t="inlineStr">
-        <is>
-          <t>864=</t>
-        </is>
-      </c>
+          <t>04 Jun 1994</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="inlineStr"/>
@@ -5858,20 +5816,18 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
-      </c>
-      <c r="H59" t="n">
-        <v>6</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>7</v>
+      </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
@@ -5882,7 +5838,7 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>MATCH 4</t>
+          <t>MATCH 5</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -5892,7 +5848,7 @@
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>Marton Fucsovics</t>
+          <t>Zsombor Piros</t>
         </is>
       </c>
       <c r="T59" t="inlineStr"/>
@@ -5903,17 +5859,17 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>08 Feb 1992</t>
+          <t>13 Oct 1999</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>212</t>
         </is>
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>541=</t>
+          <t>1371=</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr"/>
@@ -5926,42 +5882,46 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02 Feb - 04 Feb 2018</t>
+          <t xml:space="preserve"> 06 Apr - 08 Apr 2018</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Country Hall du Sart-Tilman, Liège, Belgium</t>
+          <t xml:space="preserve"> Valletta Cambiaso ASD, Genoa, Italy</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Acrylic, Indoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tecnifibre X-One</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>WORLD GROUP  1ST ROUND</t>
+          <t>WORLD GROUP  QUARTERFINAL</t>
         </is>
       </c>
       <c r="F60" t="n">
         <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>6</v>
-      </c>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+      <c r="I60" t="n">
+        <v>6</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>3</v>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
@@ -5972,28 +5932,24 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>MATCH 5</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium Fast</t>
-        </is>
-      </c>
+          <t>MATCH 1</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr">
         <is>
-          <t>Julien Cagnina</t>
+          <t>Andreas Seppi</t>
         </is>
       </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>04 Jun 1994</t>
+          <t>21 Feb 1984</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -6008,42 +5964,46 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 02 Feb - 04 Feb 2018</t>
+          <t xml:space="preserve"> 06 Apr - 08 Apr 2018</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Country Hall du Sart-Tilman, Liège, Belgium</t>
+          <t xml:space="preserve"> Valletta Cambiaso ASD, Genoa, Italy</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Acrylic, Indoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tecnifibre X-One</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>WORLD GROUP  1ST ROUND</t>
+          <t>WORLD GROUP  QUARTERFINAL</t>
         </is>
       </c>
       <c r="F61" t="n">
         <v>6</v>
       </c>
       <c r="G61" t="n">
-        <v>7</v>
-      </c>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>6</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>7</v>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
@@ -6054,38 +6014,34 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>MATCH 5</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium Fast</t>
-        </is>
-      </c>
+          <t>MATCH 1</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr">
         <is>
-          <t>Zsombor Piros</t>
+          <t>Lucas Pouille</t>
         </is>
       </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>HUNGARY</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>13 Oct 1999</t>
+          <t>23 Feb 1994</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>147</t>
         </is>
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>1371=</t>
+          <t>291</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr"/>
@@ -6122,10 +6078,10 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H62" t="n">
         <v>6</v>
@@ -6133,10 +6089,10 @@
       <c r="I62" t="n">
         <v>6</v>
       </c>
-      <c r="J62" t="n">
-        <v>1</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>6</v>
+      </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
@@ -6148,13 +6104,13 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr">
         <is>
-          <t>Andreas Seppi</t>
+          <t>Fabio Fognini</t>
         </is>
       </c>
       <c r="T62" t="inlineStr"/>
@@ -6165,11 +6121,19 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>21 Feb 1984</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
+          <t>24 May 1987</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>840</t>
+        </is>
+      </c>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr"/>
@@ -6204,21 +6168,21 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G63" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
         <v>3</v>
       </c>
-      <c r="J63" t="n">
-        <v>6</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>8</v>
+      </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
@@ -6230,13 +6194,13 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr">
         <is>
-          <t>Lucas Pouille</t>
+          <t>Jeremy Chardy</t>
         </is>
       </c>
       <c r="T63" t="inlineStr"/>
@@ -6247,19 +6211,11 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>23 Feb 1994</t>
-        </is>
-      </c>
-      <c r="W63" t="inlineStr">
-        <is>
-          <t>147</t>
-        </is>
-      </c>
-      <c r="X63" t="inlineStr">
-        <is>
-          <t>291</t>
-        </is>
-      </c>
+          <t>12 Feb 1987</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr"/>
       <c r="AA63" t="inlineStr"/>
@@ -6294,21 +6250,17 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G64" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H64" t="n">
-        <v>6</v>
-      </c>
-      <c r="I64" t="n">
-        <v>6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>6</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
@@ -6320,16 +6272,20 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr">
         <is>
+          <t>Simone Bolelli</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
           <t>Fabio Fognini</t>
         </is>
       </c>
-      <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
           <t>ITALY</t>
@@ -6337,22 +6293,30 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
+          <t>08 Oct 1985</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
           <t>24 May 1987</t>
         </is>
       </c>
-      <c r="W64" t="inlineStr">
+      <c r="Z64" t="inlineStr">
         <is>
           <t>71</t>
         </is>
       </c>
-      <c r="X64" t="inlineStr">
+      <c r="AA64" t="inlineStr">
         <is>
           <t>840</t>
         </is>
       </c>
-      <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
-      <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="n">
         <v>2018</v>
       </c>
@@ -6384,21 +6348,17 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>8</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
@@ -6410,16 +6370,20 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr">
         <is>
-          <t>Jeremy Chardy</t>
-        </is>
-      </c>
-      <c r="T65" t="inlineStr"/>
+          <t>Pierre-Hugues Herbert</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>Nicolas Mahut</t>
+        </is>
+      </c>
       <c r="U65" t="inlineStr">
         <is>
           <t>FRANCE</t>
@@ -6427,14 +6391,30 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>12 Feb 1987</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
+          <t>18 Mar 1991</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>21 Jan 1982</t>
+        </is>
+      </c>
       <c r="Z65" t="inlineStr"/>
-      <c r="AA65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="AB65" t="n">
         <v>2018</v>
       </c>
@@ -6466,19 +6446,23 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+      <c r="I66" t="n">
         <v>3</v>
       </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
@@ -6488,20 +6472,16 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 4</t>
         </is>
       </c>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr">
         <is>
-          <t>Simone Bolelli</t>
-        </is>
-      </c>
-      <c r="T66" t="inlineStr">
-        <is>
           <t>Fabio Fognini</t>
         </is>
       </c>
+      <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
           <t>ITALY</t>
@@ -6509,30 +6489,22 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>08 Oct 1985</t>
-        </is>
-      </c>
-      <c r="W66" t="inlineStr"/>
+          <t>24 May 1987</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="Y66" t="inlineStr">
-        <is>
-          <t>24 May 1987</t>
-        </is>
-      </c>
-      <c r="Z66" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="AA66" t="inlineStr">
-        <is>
           <t>840</t>
         </is>
       </c>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
       <c r="AB66" t="n">
         <v>2018</v>
       </c>
@@ -6564,19 +6536,23 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G67" t="n">
         <v>6</v>
       </c>
       <c r="H67" t="n">
-        <v>6</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="I67" t="n">
+        <v>6</v>
+      </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
+      <c r="M67" t="n">
+        <v>7</v>
+      </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
@@ -6586,20 +6562,16 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 4</t>
         </is>
       </c>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr">
         <is>
-          <t>Pierre-Hugues Herbert</t>
-        </is>
-      </c>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t>Nicolas Mahut</t>
-        </is>
-      </c>
+          <t>Lucas Pouille</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
           <t>FRANCE</t>
@@ -6607,30 +6579,22 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>18 Mar 1991</t>
+          <t>23 Feb 1994</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>147</t>
         </is>
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="Y67" t="inlineStr">
-        <is>
-          <t>21 Jan 1982</t>
-        </is>
-      </c>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr"/>
-      <c r="AA67" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+      <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="n">
         <v>2018</v>
       </c>
@@ -6643,7 +6607,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valletta Cambiaso ASD, Genoa, Italy</t>
+          <t xml:space="preserve"> Plaza de Toros de Valencia, Valencia, Spain</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -6653,7 +6617,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
+          <t xml:space="preserve"> Head Davis Cup</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -6662,23 +6626,19 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
-        <v>6</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>3</v>
-      </c>
+      <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
@@ -6688,36 +6648,28 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>MATCH 4</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr">
         <is>
-          <t>Fabio Fognini</t>
+          <t>David Ferrer</t>
         </is>
       </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>24 May 1987</t>
-        </is>
-      </c>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="X68" t="inlineStr">
-        <is>
-          <t>840</t>
-        </is>
-      </c>
+          <t>02 Apr 1982</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="inlineStr"/>
@@ -6733,7 +6685,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valletta Cambiaso ASD, Genoa, Italy</t>
+          <t xml:space="preserve"> Plaza de Toros de Valencia, Valencia, Spain</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -6743,7 +6695,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
+          <t xml:space="preserve"> Head Davis Cup</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -6752,23 +6704,19 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G69" t="n">
         <v>6</v>
       </c>
       <c r="H69" t="n">
-        <v>7</v>
-      </c>
-      <c r="I69" t="n">
-        <v>6</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>7</v>
-      </c>
+      <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
@@ -6778,34 +6726,34 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>MATCH 4</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr">
         <is>
-          <t>Lucas Pouille</t>
+          <t>Alexander Zverev</t>
         </is>
       </c>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>23 Feb 1994</t>
+          <t>20 Apr 1997</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>4</t>
         </is>
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>90</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr"/>
@@ -6842,13 +6790,13 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -6864,13 +6812,13 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr">
         <is>
-          <t>David Ferrer</t>
+          <t>Rafael Nadal</t>
         </is>
       </c>
       <c r="T70" t="inlineStr"/>
@@ -6881,11 +6829,19 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>02 Apr 1982</t>
-        </is>
-      </c>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
+          <t>03 Jun 1986</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>863</t>
+        </is>
+      </c>
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr"/>
       <c r="AA70" t="inlineStr"/>
@@ -6920,13 +6876,13 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G71" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H71" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -6942,13 +6898,13 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr">
         <is>
-          <t>Alexander Zverev</t>
+          <t>Philipp Kohlschreiber</t>
         </is>
       </c>
       <c r="T71" t="inlineStr"/>
@@ -6959,19 +6915,11 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>20 Apr 1997</t>
-        </is>
-      </c>
-      <c r="W71" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="X71" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+          <t>16 Oct 1983</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr"/>
@@ -7006,20 +6954,26 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G72" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H72" t="n">
         <v>6</v>
       </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>7</v>
+      </c>
+      <c r="J72" t="n">
+        <v>5</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
+      <c r="N72" t="n">
+        <v>7</v>
+      </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
@@ -7028,16 +6982,20 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr">
         <is>
-          <t>Rafael Nadal</t>
-        </is>
-      </c>
-      <c r="T72" t="inlineStr"/>
+          <t>Feliciano Lopez</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>Marc Lopez</t>
+        </is>
+      </c>
       <c r="U72" t="inlineStr">
         <is>
           <t>SPAIN</t>
@@ -7045,19 +7003,11 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>03 Jun 1986</t>
-        </is>
-      </c>
-      <c r="W72" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
-      </c>
-      <c r="X72" t="inlineStr">
-        <is>
-          <t>863</t>
-        </is>
-      </c>
+          <t>20 Sep 1981</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr"/>
@@ -7092,20 +7042,26 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H73" t="n">
         <v>3</v>
       </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>7</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
+      <c r="N73" t="n">
+        <v>4</v>
+      </c>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
@@ -7114,16 +7070,20 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr">
         <is>
-          <t>Philipp Kohlschreiber</t>
-        </is>
-      </c>
-      <c r="T73" t="inlineStr"/>
+          <t>Tim Puetz</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>Jan-Lennard Struff</t>
+        </is>
+      </c>
       <c r="U73" t="inlineStr">
         <is>
           <t>GERMANY</t>
@@ -7131,14 +7091,30 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>16 Oct 1983</t>
+          <t>19 Nov 1987</t>
         </is>
       </c>
       <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="inlineStr"/>
-      <c r="AA73" t="inlineStr"/>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>20=</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>25 Apr 1990</t>
+        </is>
+      </c>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
       <c r="AB73" t="n">
         <v>2018</v>
       </c>
@@ -7170,26 +7146,20 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G74" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H74" t="n">
         <v>6</v>
       </c>
-      <c r="I74" t="n">
-        <v>7</v>
-      </c>
-      <c r="J74" t="n">
-        <v>5</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
-        <v>7</v>
-      </c>
+      <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
@@ -7198,20 +7168,16 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 4</t>
         </is>
       </c>
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr">
         <is>
-          <t>Feliciano Lopez</t>
-        </is>
-      </c>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>Marc Lopez</t>
-        </is>
-      </c>
+          <t>Rafael Nadal</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
           <t>SPAIN</t>
@@ -7219,11 +7185,19 @@
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>20 Sep 1981</t>
-        </is>
-      </c>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
+          <t>03 Jun 1986</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>863</t>
+        </is>
+      </c>
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="inlineStr"/>
@@ -7258,26 +7232,20 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
-      </c>
-      <c r="I75" t="n">
-        <v>6</v>
-      </c>
-      <c r="J75" t="n">
-        <v>7</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
-        <v>4</v>
-      </c>
+      <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
@@ -7286,20 +7254,16 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 4</t>
         </is>
       </c>
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr">
         <is>
-          <t>Tim Puetz</t>
-        </is>
-      </c>
-      <c r="T75" t="inlineStr">
-        <is>
-          <t>Jan-Lennard Struff</t>
-        </is>
-      </c>
+          <t>Alexander Zverev</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
         <is>
           <t>GERMANY</t>
@@ -7307,30 +7271,22 @@
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>19 Nov 1987</t>
-        </is>
-      </c>
-      <c r="W75" t="inlineStr"/>
+          <t>20 Apr 1997</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>20=</t>
-        </is>
-      </c>
-      <c r="Y75" t="inlineStr">
-        <is>
-          <t>25 Apr 1990</t>
-        </is>
-      </c>
-      <c r="Z75" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="AA75" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr"/>
+      <c r="AA75" t="inlineStr"/>
       <c r="AB75" t="n">
         <v>2018</v>
       </c>
@@ -7362,19 +7318,27 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G76" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H76" t="n">
-        <v>6</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="I76" t="n">
+        <v>4</v>
+      </c>
+      <c r="J76" t="n">
+        <v>7</v>
+      </c>
+      <c r="K76" t="n">
+        <v>7</v>
+      </c>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
+      <c r="M76" t="n">
+        <v>7</v>
+      </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
@@ -7384,13 +7348,13 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>MATCH 4</t>
+          <t>MATCH 5</t>
         </is>
       </c>
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr">
         <is>
-          <t>Rafael Nadal</t>
+          <t>David Ferrer</t>
         </is>
       </c>
       <c r="T76" t="inlineStr"/>
@@ -7401,19 +7365,11 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>03 Jun 1986</t>
-        </is>
-      </c>
-      <c r="W76" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
-      </c>
-      <c r="X76" t="inlineStr">
-        <is>
-          <t>863</t>
-        </is>
-      </c>
+          <t>02 Apr 1982</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr"/>
       <c r="AA76" t="inlineStr"/>
@@ -7448,19 +7404,27 @@
         </is>
       </c>
       <c r="F77" t="n">
+        <v>6</v>
+      </c>
+      <c r="G77" t="n">
+        <v>6</v>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+      <c r="I77" t="n">
+        <v>6</v>
+      </c>
+      <c r="J77" t="n">
+        <v>5</v>
+      </c>
+      <c r="K77" t="n">
         <v>1</v>
       </c>
-      <c r="G77" t="n">
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="n">
         <v>4</v>
       </c>
-      <c r="H77" t="n">
-        <v>4</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
@@ -7470,13 +7434,13 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>MATCH 4</t>
+          <t>MATCH 5</t>
         </is>
       </c>
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr">
         <is>
-          <t>Alexander Zverev</t>
+          <t>Philipp Kohlschreiber</t>
         </is>
       </c>
       <c r="T77" t="inlineStr"/>
@@ -7487,19 +7451,11 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>20 Apr 1997</t>
-        </is>
-      </c>
-      <c r="W77" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="X77" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+          <t>16 Oct 1983</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
@@ -7515,17 +7471,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Plaza de Toros de Valencia, Valencia, Spain</t>
+          <t xml:space="preserve"> Varazdin Arena, Varazdin, Croatia</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Head Davis Cup</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -7534,27 +7490,19 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H78" t="n">
-        <v>7</v>
-      </c>
-      <c r="I78" t="n">
-        <v>4</v>
-      </c>
-      <c r="J78" t="n">
-        <v>7</v>
-      </c>
-      <c r="K78" t="n">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>7</v>
-      </c>
+      <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
@@ -7564,27 +7512,31 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>MATCH 5</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr">
         <is>
-          <t>David Ferrer</t>
+          <t>Marin Cilic</t>
         </is>
       </c>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>02 Apr 1982</t>
-        </is>
-      </c>
-      <c r="W78" t="inlineStr"/>
+          <t>28 Sep 1988</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>1082</t>
+        </is>
+      </c>
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr"/>
@@ -7601,17 +7553,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Plaza de Toros de Valencia, Valencia, Spain</t>
+          <t xml:space="preserve"> Varazdin Arena, Varazdin, Croatia</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Head Davis Cup</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -7620,27 +7572,19 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G79" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>6</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6</v>
-      </c>
-      <c r="J79" t="n">
-        <v>5</v>
-      </c>
-      <c r="K79" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>4</v>
-      </c>
+      <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
@@ -7650,28 +7594,36 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>MATCH 5</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr">
         <is>
-          <t>Philipp Kohlschreiber</t>
+          <t>Dmitry Popko</t>
         </is>
       </c>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>KAZAKHSTAN</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>16 Oct 1983</t>
-        </is>
-      </c>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
+          <t>24 Oct 1996</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="inlineStr"/>
@@ -7712,12 +7664,16 @@
         <v>6</v>
       </c>
       <c r="H80" t="n">
-        <v>6</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2</v>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>5</v>
+      </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
@@ -7728,13 +7684,13 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr">
         <is>
-          <t>Marin Cilic</t>
+          <t>Borna Coric</t>
         </is>
       </c>
       <c r="T80" t="inlineStr"/>
@@ -7745,12 +7701,12 @@
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>28 Sep 1988</t>
+          <t>14 Nov 1996</t>
         </is>
       </c>
       <c r="W80" t="inlineStr">
         <is>
-          <t>1082</t>
+          <t>98</t>
         </is>
       </c>
       <c r="X80" t="inlineStr"/>
@@ -7788,18 +7744,22 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="I81" t="n">
+        <v>6</v>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>7</v>
+      </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
@@ -7810,13 +7770,13 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr">
         <is>
-          <t>Dmitry Popko</t>
+          <t>Mikhail Kukushkin</t>
         </is>
       </c>
       <c r="T81" t="inlineStr"/>
@@ -7827,19 +7787,15 @@
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>24 Oct 1996</t>
+          <t>26 Dec 1987</t>
         </is>
       </c>
       <c r="W81" t="inlineStr">
         <is>
-          <t>181</t>
-        </is>
-      </c>
-      <c r="X81" t="inlineStr">
-        <is>
-          <t>514</t>
-        </is>
-      </c>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr"/>
       <c r="AA81" t="inlineStr"/>
@@ -7880,16 +7836,16 @@
         <v>6</v>
       </c>
       <c r="H82" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I82" t="n">
+        <v>6</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
         <v>2</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>5</v>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
@@ -7900,16 +7856,20 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr">
         <is>
-          <t>Borna Coric</t>
-        </is>
-      </c>
-      <c r="T82" t="inlineStr"/>
+          <t>Ivan Dodig</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>Nikola Mektic</t>
+        </is>
+      </c>
       <c r="U82" t="inlineStr">
         <is>
           <t>CROATIA</t>
@@ -7917,18 +7877,26 @@
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>14 Nov 1996</t>
-        </is>
-      </c>
-      <c r="W82" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
+          <t>02 Jan 1985</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>24 Dec 1988</t>
+        </is>
+      </c>
       <c r="Z82" t="inlineStr"/>
-      <c r="AA82" t="inlineStr"/>
+      <c r="AA82" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
       <c r="AB82" t="n">
         <v>2018</v>
       </c>
@@ -7960,22 +7928,22 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G83" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H83" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I83" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>7</v>
-      </c>
+      <c r="K83" t="n">
+        <v>7</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
@@ -7986,16 +7954,20 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr">
         <is>
-          <t>Mikhail Kukushkin</t>
-        </is>
-      </c>
-      <c r="T83" t="inlineStr"/>
+          <t>Timur Khabibulin</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>Aleksandr Nedovyesov</t>
+        </is>
+      </c>
       <c r="U83" t="inlineStr">
         <is>
           <t>KAZAKHSTAN</t>
@@ -8003,18 +7975,22 @@
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>26 Dec 1987</t>
-        </is>
-      </c>
-      <c r="W83" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
-      </c>
+          <t>02 Aug 1995</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>15 Feb 1987</t>
+        </is>
+      </c>
       <c r="Z83" t="inlineStr"/>
-      <c r="AA83" t="inlineStr"/>
+      <c r="AA83" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
       <c r="AB83" t="n">
         <v>2018</v>
       </c>
@@ -8054,13 +8030,9 @@
       <c r="H84" t="n">
         <v>6</v>
       </c>
-      <c r="I84" t="n">
-        <v>6</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>2</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
@@ -8072,20 +8044,16 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 4</t>
         </is>
       </c>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr">
         <is>
-          <t>Ivan Dodig</t>
-        </is>
-      </c>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>Nikola Mektic</t>
-        </is>
-      </c>
+          <t>Marin Cilic</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr">
         <is>
           <t>CROATIA</t>
@@ -8093,26 +8061,18 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>02 Jan 1985</t>
-        </is>
-      </c>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="Y84" t="inlineStr">
-        <is>
-          <t>24 Dec 1988</t>
-        </is>
-      </c>
+          <t>28 Sep 1988</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>1082</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr"/>
-      <c r="AA84" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
+      <c r="AA84" t="inlineStr"/>
       <c r="AB84" t="n">
         <v>2018</v>
       </c>
@@ -8144,21 +8104,17 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>4</v>
-      </c>
-      <c r="I85" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>7</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
@@ -8170,20 +8126,16 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 4</t>
         </is>
       </c>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr">
         <is>
-          <t>Timur Khabibulin</t>
-        </is>
-      </c>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>Aleksandr Nedovyesov</t>
-        </is>
-      </c>
+          <t>Mikhail Kukushkin</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr">
         <is>
           <t>KAZAKHSTAN</t>
@@ -8191,22 +8143,18 @@
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>02 Aug 1995</t>
-        </is>
-      </c>
-      <c r="W85" t="inlineStr"/>
+          <t>26 Dec 1987</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
       <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr">
-        <is>
-          <t>15 Feb 1987</t>
-        </is>
-      </c>
+      <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr"/>
-      <c r="AA85" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
+      <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="n">
         <v>2018</v>
       </c>
@@ -8219,17 +8167,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Varazdin Arena, Varazdin, Croatia</t>
+          <t xml:space="preserve"> Curb Event Center, Nashville, USA</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
+          <t xml:space="preserve"> Hard - Premier, Indoor</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
+          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -8244,13 +8192,19 @@
         <v>6</v>
       </c>
       <c r="H86" t="n">
-        <v>6</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="I86" t="n">
+        <v>6</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>4</v>
+      </c>
+      <c r="M86" t="n">
+        <v>10</v>
+      </c>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
@@ -8260,29 +8214,33 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>MATCH 4</t>
-        </is>
-      </c>
-      <c r="R86" t="inlineStr"/>
+          <t>MATCH 1</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium</t>
+        </is>
+      </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>Marin Cilic</t>
+          <t>John Isner</t>
         </is>
       </c>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>28 Sep 1988</t>
+          <t>26 Apr 1985</t>
         </is>
       </c>
       <c r="W86" t="inlineStr">
         <is>
-          <t>1082</t>
+          <t>660</t>
         </is>
       </c>
       <c r="X86" t="inlineStr"/>
@@ -8301,17 +8259,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Varazdin Arena, Varazdin, Croatia</t>
+          <t xml:space="preserve"> Curb Event Center, Nashville, USA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
+          <t xml:space="preserve"> Hard - Premier, Indoor</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
+          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -8320,19 +8278,25 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="I87" t="n">
+        <v>4</v>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>7</v>
+      </c>
+      <c r="M87" t="n">
+        <v>8</v>
+      </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
@@ -8342,29 +8306,33 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>MATCH 4</t>
-        </is>
-      </c>
-      <c r="R87" t="inlineStr"/>
+          <t>MATCH 1</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Medium</t>
+        </is>
+      </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>Mikhail Kukushkin</t>
+          <t>Joris De Loore</t>
         </is>
       </c>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr">
         <is>
-          <t>KAZAKHSTAN</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>26 Dec 1987</t>
+          <t>21 Apr 1993</t>
         </is>
       </c>
       <c r="W87" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>211</t>
         </is>
       </c>
       <c r="X87" t="inlineStr"/>
@@ -8405,22 +8373,18 @@
         <v>6</v>
       </c>
       <c r="G88" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H88" t="n">
         <v>7</v>
       </c>
-      <c r="I88" t="n">
-        <v>6</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
-        <v>4</v>
-      </c>
-      <c r="M88" t="n">
-        <v>10</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
@@ -8430,7 +8394,7 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -8440,7 +8404,7 @@
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>John Isner</t>
+          <t>Sam Querrey</t>
         </is>
       </c>
       <c r="T88" t="inlineStr"/>
@@ -8451,14 +8415,10 @@
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>26 Apr 1985</t>
-        </is>
-      </c>
-      <c r="W88" t="inlineStr">
-        <is>
-          <t>660</t>
-        </is>
-      </c>
+          <t>07 Oct 1987</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr"/>
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr"/>
@@ -8494,25 +8454,21 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H89" t="n">
-        <v>6</v>
-      </c>
-      <c r="I89" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
-        <v>7</v>
-      </c>
-      <c r="M89" t="n">
-        <v>8</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
@@ -8522,7 +8478,7 @@
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -8532,7 +8488,7 @@
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>Joris De Loore</t>
+          <t>Ruben Bemelmans</t>
         </is>
       </c>
       <c r="T89" t="inlineStr"/>
@@ -8543,14 +8499,10 @@
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>21 Apr 1993</t>
-        </is>
-      </c>
-      <c r="W89" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
+          <t>14 Jan 1988</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr"/>
       <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr"/>
@@ -8586,7 +8538,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G90" t="n">
         <v>7</v>
@@ -8594,13 +8546,17 @@
       <c r="H90" t="n">
         <v>7</v>
       </c>
-      <c r="I90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>6</v>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>7</v>
       </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>7</v>
+      </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
@@ -8610,7 +8566,7 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
@@ -8620,10 +8576,14 @@
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>Sam Querrey</t>
-        </is>
-      </c>
-      <c r="T90" t="inlineStr"/>
+          <t>Ryan Harrison</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>Jack Sock</t>
+        </is>
+      </c>
       <c r="U90" t="inlineStr">
         <is>
           <t>USA</t>
@@ -8631,12 +8591,16 @@
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>07 Oct 1987</t>
+          <t>07 May 1992</t>
         </is>
       </c>
       <c r="W90" t="inlineStr"/>
       <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>24 Sep 1992</t>
+        </is>
+      </c>
       <c r="Z90" t="inlineStr"/>
       <c r="AA90" t="inlineStr"/>
       <c r="AB90" t="n">
@@ -8670,21 +8634,25 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G91" t="n">
         <v>6</v>
       </c>
       <c r="H91" t="n">
-        <v>5</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="I91" t="n">
+        <v>4</v>
+      </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
-        <v>5</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
@@ -8694,7 +8662,7 @@
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -8704,10 +8672,14 @@
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>Ruben Bemelmans</t>
-        </is>
-      </c>
-      <c r="T91" t="inlineStr"/>
+          <t>Sander Gille</t>
+        </is>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>Joran Vliegen</t>
+        </is>
+      </c>
       <c r="U91" t="inlineStr">
         <is>
           <t>BELGIUM</t>
@@ -8715,14 +8687,26 @@
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>14 Jan 1988</t>
+          <t>15 Jan 1991</t>
         </is>
       </c>
       <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>35=</t>
+        </is>
+      </c>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>07 Jul 1993</t>
+        </is>
+      </c>
       <c r="Z91" t="inlineStr"/>
-      <c r="AA91" t="inlineStr"/>
+      <c r="AA91" t="inlineStr">
+        <is>
+          <t>35=</t>
+        </is>
+      </c>
       <c r="AB91" t="n">
         <v>2018</v>
       </c>
@@ -8754,25 +8738,17 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G92" t="n">
-        <v>7</v>
-      </c>
-      <c r="H92" t="n">
-        <v>7</v>
-      </c>
-      <c r="I92" t="n">
-        <v>6</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>7</v>
-      </c>
-      <c r="M92" t="n">
-        <v>7</v>
-      </c>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
@@ -8782,7 +8758,7 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 4</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
@@ -8795,11 +8771,7 @@
           <t>Ryan Harrison</t>
         </is>
       </c>
-      <c r="T92" t="inlineStr">
-        <is>
-          <t>Jack Sock</t>
-        </is>
-      </c>
+      <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr">
         <is>
           <t>USA</t>
@@ -8812,11 +8784,7 @@
       </c>
       <c r="W92" t="inlineStr"/>
       <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr">
-        <is>
-          <t>24 Sep 1992</t>
-        </is>
-      </c>
+      <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr"/>
       <c r="AA92" t="inlineStr"/>
       <c r="AB92" t="n">
@@ -8850,25 +8818,17 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G93" t="n">
-        <v>6</v>
-      </c>
-      <c r="H93" t="n">
-        <v>6</v>
-      </c>
-      <c r="I93" t="n">
         <v>4</v>
       </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="n">
-        <v>3</v>
-      </c>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
@@ -8878,7 +8838,7 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 4</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
@@ -8888,14 +8848,10 @@
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>Sander Gille</t>
-        </is>
-      </c>
-      <c r="T93" t="inlineStr">
-        <is>
-          <t>Joran Vliegen</t>
-        </is>
-      </c>
+          <t>Ruben Bemelmans</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr">
         <is>
           <t>BELGIUM</t>
@@ -8903,26 +8859,14 @@
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>15 Jan 1991</t>
+          <t>14 Jan 1988</t>
         </is>
       </c>
       <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr">
-        <is>
-          <t>35=</t>
-        </is>
-      </c>
-      <c r="Y93" t="inlineStr">
-        <is>
-          <t>07 Jul 1993</t>
-        </is>
-      </c>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr"/>
-      <c r="AA93" t="inlineStr">
-        <is>
-          <t>35=</t>
-        </is>
-      </c>
+      <c r="AA93" t="inlineStr"/>
       <c r="AB93" t="n">
         <v>2018</v>
       </c>
@@ -8930,36 +8874,38 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06 Apr - 08 Apr 2018</t>
+          <t xml:space="preserve"> 14 Sep - 16 Sep 2018</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Curb Event Center, Nashville, USA</t>
+          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Premier, Indoor</t>
+          <t xml:space="preserve"> Hard - Rebound Ace Synpave, Indoor</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Tecnifibre X-One</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>WORLD GROUP  QUARTERFINAL</t>
+          <t>WORLD GROUP  SEMIFINAL</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G94" t="n">
         <v>6</v>
       </c>
-      <c r="H94" t="inlineStr"/>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -8974,32 +8920,36 @@
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>MATCH 4</t>
-        </is>
-      </c>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium</t>
-        </is>
-      </c>
+          <t>MATCH 1</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr">
         <is>
-          <t>Ryan Harrison</t>
+          <t>Benoit Paire</t>
         </is>
       </c>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>07 May 1992</t>
-        </is>
-      </c>
-      <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
+          <t>08 May 1989</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>1155</t>
+        </is>
+      </c>
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr"/>
       <c r="AA94" t="inlineStr"/>
@@ -9010,36 +8960,38 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06 Apr - 08 Apr 2018</t>
+          <t xml:space="preserve"> 14 Sep - 16 Sep 2018</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Curb Event Center, Nashville, USA</t>
+          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Premier, Indoor</t>
+          <t xml:space="preserve"> Hard - Rebound Ace Synpave, Indoor</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilson US Open Extra Duty</t>
+          <t xml:space="preserve"> Tecnifibre X-One</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>WORLD GROUP  QUARTERFINAL</t>
+          <t>WORLD GROUP  SEMIFINAL</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G95" t="n">
-        <v>4</v>
-      </c>
-      <c r="H95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -9054,31 +9006,31 @@
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>MATCH 4</t>
-        </is>
-      </c>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Medium</t>
-        </is>
-      </c>
+          <t>MATCH 1</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr">
         <is>
-          <t>Ruben Bemelmans</t>
+          <t>Pablo Carreno Busta</t>
         </is>
       </c>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>14 Jan 1988</t>
-        </is>
-      </c>
-      <c r="W95" t="inlineStr"/>
+          <t>12 Jul 1991</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
       <c r="X95" t="inlineStr"/>
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr"/>
@@ -9114,18 +9066,24 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G96" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H96" t="n">
         <v>6</v>
       </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>2</v>
+      </c>
+      <c r="J96" t="n">
+        <v>6</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>7</v>
+      </c>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
@@ -9136,13 +9094,13 @@
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R96" t="inlineStr"/>
       <c r="S96" t="inlineStr">
         <is>
-          <t>Benoit Paire</t>
+          <t>Lucas Pouille</t>
         </is>
       </c>
       <c r="T96" t="inlineStr"/>
@@ -9153,17 +9111,17 @@
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>08 May 1989</t>
+          <t>23 Feb 1994</t>
         </is>
       </c>
       <c r="W96" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>147</t>
         </is>
       </c>
       <c r="X96" t="inlineStr">
         <is>
-          <t>1155</t>
+          <t>291</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr"/>
@@ -9200,18 +9158,24 @@
         </is>
       </c>
       <c r="F97" t="n">
+        <v>6</v>
+      </c>
+      <c r="G97" t="n">
+        <v>6</v>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+      <c r="I97" t="n">
+        <v>6</v>
+      </c>
+      <c r="J97" t="n">
+        <v>4</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
         <v>5</v>
       </c>
-      <c r="G97" t="n">
-        <v>1</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
@@ -9222,13 +9186,13 @@
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R97" t="inlineStr"/>
       <c r="S97" t="inlineStr">
         <is>
-          <t>Pablo Carreno Busta</t>
+          <t>Roberto Bautista Agut</t>
         </is>
       </c>
       <c r="T97" t="inlineStr"/>
@@ -9239,12 +9203,12 @@
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>12 Jul 1991</t>
+          <t>14 Apr 1988</t>
         </is>
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>67</t>
         </is>
       </c>
       <c r="X97" t="inlineStr"/>
@@ -9282,25 +9246,21 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G98" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H98" t="n">
-        <v>6</v>
-      </c>
-      <c r="I98" t="n">
-        <v>2</v>
-      </c>
-      <c r="J98" t="n">
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>7</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>9</v>
+      </c>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
@@ -9310,16 +9270,20 @@
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R98" t="inlineStr"/>
       <c r="S98" t="inlineStr">
         <is>
-          <t>Lucas Pouille</t>
-        </is>
-      </c>
-      <c r="T98" t="inlineStr"/>
+          <t>Julien Benneteau</t>
+        </is>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>Nicolas Mahut</t>
+        </is>
+      </c>
       <c r="U98" t="inlineStr">
         <is>
           <t>FRANCE</t>
@@ -9327,22 +9291,22 @@
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>23 Feb 1994</t>
-        </is>
-      </c>
-      <c r="W98" t="inlineStr">
-        <is>
-          <t>147</t>
-        </is>
-      </c>
-      <c r="X98" t="inlineStr">
-        <is>
-          <t>291</t>
-        </is>
-      </c>
-      <c r="Y98" t="inlineStr"/>
+          <t>20 Dec 1981</t>
+        </is>
+      </c>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr">
+        <is>
+          <t>21 Jan 1982</t>
+        </is>
+      </c>
       <c r="Z98" t="inlineStr"/>
-      <c r="AA98" t="inlineStr"/>
+      <c r="AA98" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="AB98" t="n">
         <v>2018</v>
       </c>
@@ -9374,25 +9338,21 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H99" t="n">
-        <v>4</v>
-      </c>
-      <c r="I99" t="n">
-        <v>6</v>
-      </c>
-      <c r="J99" t="n">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>5</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>7</v>
+      </c>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
@@ -9402,16 +9362,20 @@
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R99" t="inlineStr"/>
       <c r="S99" t="inlineStr">
         <is>
-          <t>Roberto Bautista Agut</t>
-        </is>
-      </c>
-      <c r="T99" t="inlineStr"/>
+          <t>Marcel Granollers</t>
+        </is>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>Feliciano Lopez</t>
+        </is>
+      </c>
       <c r="U99" t="inlineStr">
         <is>
           <t>SPAIN</t>
@@ -9419,16 +9383,20 @@
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>14 Apr 1988</t>
-        </is>
-      </c>
-      <c r="W99" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
+          <t>12 Apr 1986</t>
+        </is>
+      </c>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>1=</t>
+        </is>
+      </c>
+      <c r="Y99" t="inlineStr">
+        <is>
+          <t>20 Sep 1981</t>
+        </is>
+      </c>
       <c r="Z99" t="inlineStr"/>
       <c r="AA99" t="inlineStr"/>
       <c r="AB99" t="n">
@@ -9465,18 +9433,16 @@
         <v>6</v>
       </c>
       <c r="G100" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H100" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>9</v>
-      </c>
+      <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
@@ -9486,20 +9452,16 @@
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 4</t>
         </is>
       </c>
       <c r="R100" t="inlineStr"/>
       <c r="S100" t="inlineStr">
         <is>
-          <t>Julien Benneteau</t>
-        </is>
-      </c>
-      <c r="T100" t="inlineStr">
-        <is>
-          <t>Nicolas Mahut</t>
-        </is>
-      </c>
+          <t>Richard Gasquet</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr">
         <is>
           <t>FRANCE</t>
@@ -9507,22 +9469,18 @@
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>20 Dec 1981</t>
-        </is>
-      </c>
-      <c r="W100" t="inlineStr"/>
+          <t>18 Jun 1986</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
       <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr">
-        <is>
-          <t>21 Jan 1982</t>
-        </is>
-      </c>
+      <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr"/>
-      <c r="AA100" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+      <c r="AA100" t="inlineStr"/>
       <c r="AB100" t="n">
         <v>2018</v>
       </c>
@@ -9554,21 +9512,19 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H101" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>7</v>
-      </c>
+      <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
@@ -9578,20 +9534,16 @@
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 4</t>
         </is>
       </c>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr">
         <is>
-          <t>Marcel Granollers</t>
-        </is>
-      </c>
-      <c r="T101" t="inlineStr">
-        <is>
-          <t>Feliciano Lopez</t>
-        </is>
-      </c>
+          <t>Albert Ramos-Vinolas</t>
+        </is>
+      </c>
+      <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr">
         <is>
           <t>SPAIN</t>
@@ -9599,20 +9551,16 @@
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>12 Apr 1986</t>
-        </is>
-      </c>
-      <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr">
-        <is>
-          <t>1=</t>
-        </is>
-      </c>
-      <c r="Y101" t="inlineStr">
-        <is>
-          <t>20 Sep 1981</t>
-        </is>
-      </c>
+          <t>17 Jan 1988</t>
+        </is>
+      </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr"/>
       <c r="AA101" t="inlineStr"/>
       <c r="AB101" t="n">
@@ -9646,17 +9594,19 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G102" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H102" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>7</v>
+      </c>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr"/>
@@ -9668,13 +9618,13 @@
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>MATCH 4</t>
+          <t>MATCH 5</t>
         </is>
       </c>
       <c r="R102" t="inlineStr"/>
       <c r="S102" t="inlineStr">
         <is>
-          <t>Richard Gasquet</t>
+          <t>Nicolas Mahut</t>
         </is>
       </c>
       <c r="T102" t="inlineStr"/>
@@ -9685,15 +9635,15 @@
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>18 Jun 1986</t>
-        </is>
-      </c>
-      <c r="W102" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="X102" t="inlineStr"/>
+          <t>21 Jan 1982</t>
+        </is>
+      </c>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr"/>
       <c r="AA102" t="inlineStr"/>
@@ -9728,17 +9678,19 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G103" t="n">
         <v>6</v>
       </c>
       <c r="H103" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>2</v>
+      </c>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr"/>
@@ -9750,13 +9702,13 @@
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>MATCH 4</t>
+          <t>MATCH 5</t>
         </is>
       </c>
       <c r="R103" t="inlineStr"/>
       <c r="S103" t="inlineStr">
         <is>
-          <t>Albert Ramos-Vinolas</t>
+          <t>Marcel Granollers</t>
         </is>
       </c>
       <c r="T103" t="inlineStr"/>
@@ -9767,15 +9719,15 @@
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>17 Jan 1988</t>
-        </is>
-      </c>
-      <c r="W103" t="inlineStr">
-        <is>
-          <t>122</t>
-        </is>
-      </c>
-      <c r="X103" t="inlineStr"/>
+          <t>12 Apr 1986</t>
+        </is>
+      </c>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>1=</t>
+        </is>
+      </c>
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr"/>
       <c r="AA103" t="inlineStr"/>
@@ -9791,17 +9743,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
+          <t xml:space="preserve"> Sportski centar Visnjik, Zadar, Croatia</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Rebound Ace Synpave, Indoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tecnifibre X-One</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -9810,20 +9762,20 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G104" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H104" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>7</v>
-      </c>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>7</v>
+      </c>
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
@@ -9834,32 +9786,32 @@
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>MATCH 5</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R104" t="inlineStr"/>
       <c r="S104" t="inlineStr">
         <is>
-          <t>Nicolas Mahut</t>
+          <t>Borna Coric</t>
         </is>
       </c>
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>21 Jan 1982</t>
-        </is>
-      </c>
-      <c r="W104" t="inlineStr"/>
-      <c r="X104" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+          <t>14 Nov 1996</t>
+        </is>
+      </c>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="X104" t="inlineStr"/>
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr"/>
       <c r="AA104" t="inlineStr"/>
@@ -9875,17 +9827,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
+          <t xml:space="preserve"> Sportski centar Visnjik, Zadar, Croatia</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hard - Rebound Ace Synpave, Indoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tecnifibre X-One</t>
+          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -9894,20 +9846,20 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G105" t="n">
         <v>6</v>
       </c>
       <c r="H105" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>2</v>
-      </c>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>4</v>
+      </c>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
@@ -9918,32 +9870,32 @@
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>MATCH 5</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R105" t="inlineStr"/>
       <c r="S105" t="inlineStr">
         <is>
-          <t>Marcel Granollers</t>
+          <t>Steve Johnson</t>
         </is>
       </c>
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>12 Apr 1986</t>
-        </is>
-      </c>
-      <c r="W105" t="inlineStr"/>
-      <c r="X105" t="inlineStr">
-        <is>
-          <t>1=</t>
-        </is>
-      </c>
+          <t>24 Dec 1989</t>
+        </is>
+      </c>
+      <c r="W105" t="inlineStr">
+        <is>
+          <t>623</t>
+        </is>
+      </c>
+      <c r="X105" t="inlineStr"/>
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr"/>
       <c r="AA105" t="inlineStr"/>
@@ -9981,18 +9933,18 @@
         <v>6</v>
       </c>
       <c r="G106" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H106" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>7</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>7</v>
+      </c>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
@@ -10002,13 +9954,13 @@
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R106" t="inlineStr"/>
       <c r="S106" t="inlineStr">
         <is>
-          <t>Borna Coric</t>
+          <t>Marin Cilic</t>
         </is>
       </c>
       <c r="T106" t="inlineStr"/>
@@ -10019,12 +9971,12 @@
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>14 Nov 1996</t>
+          <t>28 Sep 1988</t>
         </is>
       </c>
       <c r="W106" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>1082</t>
         </is>
       </c>
       <c r="X106" t="inlineStr"/>
@@ -10062,21 +10014,21 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>4</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr">
@@ -10086,31 +10038,19 @@
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R107" t="inlineStr"/>
       <c r="S107" t="inlineStr">
         <is>
-          <t>Steve Johnson</t>
+          <t>Franklin Tiafoe</t>
         </is>
       </c>
       <c r="T107" t="inlineStr"/>
-      <c r="U107" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="V107" t="inlineStr">
-        <is>
-          <t>24 Dec 1989</t>
-        </is>
-      </c>
-      <c r="W107" t="inlineStr">
-        <is>
-          <t>623</t>
-        </is>
-      </c>
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
       <c r="X107" t="inlineStr"/>
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr"/>
@@ -10146,23 +10086,31 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G108" t="n">
         <v>6</v>
       </c>
       <c r="H108" t="n">
-        <v>7</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="I108" t="n">
+        <v>7</v>
+      </c>
+      <c r="J108" t="n">
+        <v>6</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>7</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
-      <c r="O108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>6</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
+        <v>7</v>
+      </c>
+      <c r="O108" t="n">
+        <v>5</v>
+      </c>
       <c r="P108" t="inlineStr">
         <is>
           <t>PLAYED &amp; COMPLETED</t>
@@ -10170,16 +10118,20 @@
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R108" t="inlineStr"/>
       <c r="S108" t="inlineStr">
         <is>
-          <t>Marin Cilic</t>
-        </is>
-      </c>
-      <c r="T108" t="inlineStr"/>
+          <t>Ivan Dodig</t>
+        </is>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>Mate Pavic</t>
+        </is>
+      </c>
       <c r="U108" t="inlineStr">
         <is>
           <t>CROATIA</t>
@@ -10187,18 +10139,26 @@
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>28 Sep 1988</t>
-        </is>
-      </c>
-      <c r="W108" t="inlineStr">
-        <is>
-          <t>1082</t>
-        </is>
-      </c>
-      <c r="X108" t="inlineStr"/>
-      <c r="Y108" t="inlineStr"/>
+          <t>02 Jan 1985</t>
+        </is>
+      </c>
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="Y108" t="inlineStr">
+        <is>
+          <t>04 Jul 1993</t>
+        </is>
+      </c>
       <c r="Z108" t="inlineStr"/>
-      <c r="AA108" t="inlineStr"/>
+      <c r="AA108" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="AB108" t="n">
         <v>2018</v>
       </c>
@@ -10230,23 +10190,31 @@
         </is>
       </c>
       <c r="F109" t="n">
+        <v>7</v>
+      </c>
+      <c r="G109" t="n">
+        <v>7</v>
+      </c>
+      <c r="H109" t="n">
         <v>1</v>
       </c>
-      <c r="G109" t="n">
-        <v>3</v>
-      </c>
-      <c r="H109" t="n">
-        <v>6</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>6</v>
+      </c>
+      <c r="J109" t="n">
+        <v>7</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>8</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>5</v>
       </c>
-      <c r="N109" t="inlineStr"/>
-      <c r="O109" t="inlineStr"/>
+      <c r="O109" t="n">
+        <v>7</v>
+      </c>
       <c r="P109" t="inlineStr">
         <is>
           <t>PLAYED &amp; COMPLETED</t>
@@ -10254,21 +10222,37 @@
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R109" t="inlineStr"/>
       <c r="S109" t="inlineStr">
         <is>
-          <t>Franklin Tiafoe</t>
-        </is>
-      </c>
-      <c r="T109" t="inlineStr"/>
-      <c r="U109" t="inlineStr"/>
-      <c r="V109" t="inlineStr"/>
+          <t>Mike Bryan</t>
+        </is>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>Ryan Harrison</t>
+        </is>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>29 Apr 1978</t>
+        </is>
+      </c>
       <c r="W109" t="inlineStr"/>
       <c r="X109" t="inlineStr"/>
-      <c r="Y109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr">
+        <is>
+          <t>07 May 1992</t>
+        </is>
+      </c>
       <c r="Z109" t="inlineStr"/>
       <c r="AA109" t="inlineStr"/>
       <c r="AB109" t="n">
@@ -10302,31 +10286,27 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G110" t="n">
         <v>6</v>
       </c>
       <c r="H110" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I110" t="n">
-        <v>7</v>
-      </c>
-      <c r="J110" t="n">
-        <v>6</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>7</v>
+      </c>
       <c r="L110" t="n">
         <v>6</v>
       </c>
       <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
-        <v>7</v>
-      </c>
-      <c r="O110" t="n">
-        <v>5</v>
-      </c>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
       <c r="P110" t="inlineStr">
         <is>
           <t>PLAYED &amp; COMPLETED</t>
@@ -10334,20 +10314,16 @@
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 4</t>
         </is>
       </c>
       <c r="R110" t="inlineStr"/>
       <c r="S110" t="inlineStr">
         <is>
-          <t>Ivan Dodig</t>
-        </is>
-      </c>
-      <c r="T110" t="inlineStr">
-        <is>
-          <t>Mate Pavic</t>
-        </is>
-      </c>
+          <t>Marin Cilic</t>
+        </is>
+      </c>
+      <c r="T110" t="inlineStr"/>
       <c r="U110" t="inlineStr">
         <is>
           <t>CROATIA</t>
@@ -10355,26 +10331,18 @@
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>02 Jan 1985</t>
-        </is>
-      </c>
-      <c r="W110" t="inlineStr"/>
-      <c r="X110" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="Y110" t="inlineStr">
-        <is>
-          <t>04 Jul 1993</t>
-        </is>
-      </c>
+          <t>28 Sep 1988</t>
+        </is>
+      </c>
+      <c r="W110" t="inlineStr">
+        <is>
+          <t>1082</t>
+        </is>
+      </c>
+      <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr"/>
-      <c r="AA110" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="AA110" t="inlineStr"/>
       <c r="AB110" t="n">
         <v>2018</v>
       </c>
@@ -10406,31 +10374,27 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G111" t="n">
         <v>7</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I111" t="n">
         <v>6</v>
       </c>
-      <c r="J111" t="n">
-        <v>7</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>2</v>
+      </c>
       <c r="L111" t="n">
         <v>8</v>
       </c>
       <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
-        <v>5</v>
-      </c>
-      <c r="O111" t="n">
-        <v>7</v>
-      </c>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr">
         <is>
           <t>PLAYED &amp; COMPLETED</t>
@@ -10438,20 +10402,16 @@
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 4</t>
         </is>
       </c>
       <c r="R111" t="inlineStr"/>
       <c r="S111" t="inlineStr">
         <is>
-          <t>Mike Bryan</t>
-        </is>
-      </c>
-      <c r="T111" t="inlineStr">
-        <is>
-          <t>Ryan Harrison</t>
-        </is>
-      </c>
+          <t>Sam Querrey</t>
+        </is>
+      </c>
+      <c r="T111" t="inlineStr"/>
       <c r="U111" t="inlineStr">
         <is>
           <t>USA</t>
@@ -10459,16 +10419,12 @@
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>29 Apr 1978</t>
+          <t>07 Oct 1987</t>
         </is>
       </c>
       <c r="W111" t="inlineStr"/>
       <c r="X111" t="inlineStr"/>
-      <c r="Y111" t="inlineStr">
-        <is>
-          <t>07 May 1992</t>
-        </is>
-      </c>
+      <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr"/>
       <c r="AA111" t="inlineStr"/>
       <c r="AB111" t="n">
@@ -10502,25 +10458,27 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G112" t="n">
         <v>6</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I112" t="n">
-        <v>4</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="J112" t="n">
+        <v>6</v>
+      </c>
       <c r="K112" t="n">
-        <v>7</v>
-      </c>
-      <c r="L112" t="n">
-        <v>6</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>11</v>
+      </c>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
@@ -10530,13 +10488,13 @@
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>MATCH 4</t>
+          <t>MATCH 5</t>
         </is>
       </c>
       <c r="R112" t="inlineStr"/>
       <c r="S112" t="inlineStr">
         <is>
-          <t>Marin Cilic</t>
+          <t>Borna Coric</t>
         </is>
       </c>
       <c r="T112" t="inlineStr"/>
@@ -10547,12 +10505,12 @@
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>28 Sep 1988</t>
+          <t>14 Nov 1996</t>
         </is>
       </c>
       <c r="W112" t="inlineStr">
         <is>
-          <t>1082</t>
+          <t>98</t>
         </is>
       </c>
       <c r="X112" t="inlineStr"/>
@@ -10590,25 +10548,27 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G113" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I113" t="n">
-        <v>6</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>3</v>
+      </c>
       <c r="K113" t="n">
-        <v>2</v>
-      </c>
-      <c r="L113" t="n">
-        <v>8</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>13</v>
+      </c>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="inlineStr">
@@ -10618,26 +10578,18 @@
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>MATCH 4</t>
+          <t>MATCH 5</t>
         </is>
       </c>
       <c r="R113" t="inlineStr"/>
       <c r="S113" t="inlineStr">
         <is>
-          <t>Sam Querrey</t>
+          <t>Franklin Tiafoe</t>
         </is>
       </c>
       <c r="T113" t="inlineStr"/>
-      <c r="U113" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="V113" t="inlineStr">
-        <is>
-          <t>07 Oct 1987</t>
-        </is>
-      </c>
+      <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
       <c r="W113" t="inlineStr"/>
       <c r="X113" t="inlineStr"/>
       <c r="Y113" t="inlineStr"/>
@@ -10650,17 +10602,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14 Sep - 16 Sep 2018</t>
+          <t xml:space="preserve"> 23 Nov - 25 Nov 2018</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sportski centar Visnjik, Zadar, Croatia</t>
+          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -10670,31 +10622,23 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>WORLD GROUP  SEMIFINAL</t>
+          <t>DAVIS CUP  FINAL</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G114" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H114" t="n">
-        <v>6</v>
-      </c>
-      <c r="I114" t="n">
-        <v>6</v>
-      </c>
-      <c r="J114" t="n">
-        <v>6</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>11</v>
-      </c>
+      <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="inlineStr">
@@ -10704,31 +10648,27 @@
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>MATCH 5</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R114" t="inlineStr"/>
       <c r="S114" t="inlineStr">
         <is>
-          <t>Borna Coric</t>
+          <t>Jeremy Chardy</t>
         </is>
       </c>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>14 Nov 1996</t>
-        </is>
-      </c>
-      <c r="W114" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
+          <t>12 Feb 1987</t>
+        </is>
+      </c>
+      <c r="W114" t="inlineStr"/>
       <c r="X114" t="inlineStr"/>
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr"/>
@@ -10740,17 +10680,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14 Sep - 16 Sep 2018</t>
+          <t xml:space="preserve"> 23 Nov - 25 Nov 2018</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sportski centar Visnjik, Zadar, Croatia</t>
+          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clay - Red Clay, Outdoor</t>
+          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -10760,31 +10700,23 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>WORLD GROUP  SEMIFINAL</t>
+          <t>DAVIS CUP  FINAL</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H115" t="n">
-        <v>7</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="n">
-        <v>3</v>
-      </c>
-      <c r="K115" t="n">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>13</v>
-      </c>
+      <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="inlineStr">
@@ -10794,19 +10726,31 @@
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>MATCH 5</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R115" t="inlineStr"/>
       <c r="S115" t="inlineStr">
         <is>
-          <t>Franklin Tiafoe</t>
+          <t>Borna Coric</t>
         </is>
       </c>
       <c r="T115" t="inlineStr"/>
-      <c r="U115" t="inlineStr"/>
-      <c r="V115" t="inlineStr"/>
-      <c r="W115" t="inlineStr"/>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>CROATIA</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>14 Nov 1996</t>
+        </is>
+      </c>
+      <c r="W115" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
       <c r="X115" t="inlineStr"/>
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr"/>
@@ -10842,7 +10786,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G116" t="n">
         <v>5</v>
@@ -10864,13 +10808,13 @@
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R116" t="inlineStr"/>
       <c r="S116" t="inlineStr">
         <is>
-          <t>Jeremy Chardy</t>
+          <t>Jo-Wilfried Tsonga</t>
         </is>
       </c>
       <c r="T116" t="inlineStr"/>
@@ -10881,7 +10825,7 @@
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>12 Feb 1987</t>
+          <t>17 Apr 1985</t>
         </is>
       </c>
       <c r="W116" t="inlineStr"/>
@@ -10942,13 +10886,13 @@
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R117" t="inlineStr"/>
       <c r="S117" t="inlineStr">
         <is>
-          <t>Borna Coric</t>
+          <t>Marin Cilic</t>
         </is>
       </c>
       <c r="T117" t="inlineStr"/>
@@ -10959,12 +10903,12 @@
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>14 Nov 1996</t>
+          <t>28 Sep 1988</t>
         </is>
       </c>
       <c r="W117" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>1082</t>
         </is>
       </c>
       <c r="X117" t="inlineStr"/>
@@ -11002,20 +10946,24 @@
         </is>
       </c>
       <c r="F118" t="n">
+        <v>6</v>
+      </c>
+      <c r="G118" t="n">
+        <v>6</v>
+      </c>
+      <c r="H118" t="n">
         <v>3</v>
       </c>
-      <c r="G118" t="n">
-        <v>5</v>
-      </c>
-      <c r="H118" t="n">
-        <v>4</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>7</v>
+      </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr"/>
-      <c r="N118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>7</v>
+      </c>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr">
         <is>
@@ -11024,16 +10972,20 @@
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R118" t="inlineStr"/>
       <c r="S118" t="inlineStr">
         <is>
-          <t>Jo-Wilfried Tsonga</t>
-        </is>
-      </c>
-      <c r="T118" t="inlineStr"/>
+          <t>Pierre-Hugues Herbert</t>
+        </is>
+      </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>Nicolas Mahut</t>
+        </is>
+      </c>
       <c r="U118" t="inlineStr">
         <is>
           <t>FRANCE</t>
@@ -11041,14 +10993,30 @@
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>17 Apr 1985</t>
-        </is>
-      </c>
-      <c r="W118" t="inlineStr"/>
-      <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr"/>
+          <t>18 Mar 1991</t>
+        </is>
+      </c>
+      <c r="W118" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="X118" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="Y118" t="inlineStr">
+        <is>
+          <t>21 Jan 1982</t>
+        </is>
+      </c>
       <c r="Z118" t="inlineStr"/>
-      <c r="AA118" t="inlineStr"/>
+      <c r="AA118" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="AB118" t="n">
         <v>2018</v>
       </c>
@@ -11080,20 +11048,24 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G119" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H119" t="n">
         <v>6</v>
       </c>
-      <c r="I119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>6</v>
+      </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr"/>
-      <c r="N119" t="inlineStr"/>
+      <c r="N119" t="n">
+        <v>3</v>
+      </c>
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr">
         <is>
@@ -11102,16 +11074,20 @@
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R119" t="inlineStr"/>
       <c r="S119" t="inlineStr">
         <is>
-          <t>Marin Cilic</t>
-        </is>
-      </c>
-      <c r="T119" t="inlineStr"/>
+          <t>Ivan Dodig</t>
+        </is>
+      </c>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>Mate Pavic</t>
+        </is>
+      </c>
       <c r="U119" t="inlineStr">
         <is>
           <t>CROATIA</t>
@@ -11119,18 +11095,26 @@
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>28 Sep 1988</t>
-        </is>
-      </c>
-      <c r="W119" t="inlineStr">
-        <is>
-          <t>1082</t>
-        </is>
-      </c>
-      <c r="X119" t="inlineStr"/>
-      <c r="Y119" t="inlineStr"/>
+          <t>02 Jan 1985</t>
+        </is>
+      </c>
+      <c r="W119" t="inlineStr"/>
+      <c r="X119" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="Y119" t="inlineStr">
+        <is>
+          <t>04 Jul 1993</t>
+        </is>
+      </c>
       <c r="Z119" t="inlineStr"/>
-      <c r="AA119" t="inlineStr"/>
+      <c r="AA119" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="AB119" t="n">
         <v>2018</v>
       </c>
@@ -11165,21 +11149,19 @@
         <v>6</v>
       </c>
       <c r="G120" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H120" t="n">
         <v>3</v>
       </c>
-      <c r="I120" t="n">
-        <v>7</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>3</v>
+      </c>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
-        <v>7</v>
-      </c>
+      <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr">
         <is>
@@ -11188,20 +11170,16 @@
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 4</t>
         </is>
       </c>
       <c r="R120" t="inlineStr"/>
       <c r="S120" t="inlineStr">
         <is>
-          <t>Pierre-Hugues Herbert</t>
-        </is>
-      </c>
-      <c r="T120" t="inlineStr">
-        <is>
-          <t>Nicolas Mahut</t>
-        </is>
-      </c>
+          <t>Lucas Pouille</t>
+        </is>
+      </c>
+      <c r="T120" t="inlineStr"/>
       <c r="U120" t="inlineStr">
         <is>
           <t>FRANCE</t>
@@ -11209,30 +11187,22 @@
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>18 Mar 1991</t>
+          <t>23 Feb 1994</t>
         </is>
       </c>
       <c r="W120" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>147</t>
         </is>
       </c>
       <c r="X120" t="inlineStr">
         <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="Y120" t="inlineStr">
-        <is>
-          <t>21 Jan 1982</t>
-        </is>
-      </c>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="Y120" t="inlineStr"/>
       <c r="Z120" t="inlineStr"/>
-      <c r="AA120" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
+      <c r="AA120" t="inlineStr"/>
       <c r="AB120" t="n">
         <v>2018</v>
       </c>
@@ -11264,24 +11234,22 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G121" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H121" t="n">
         <v>6</v>
       </c>
-      <c r="I121" t="n">
-        <v>6</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>7</v>
+      </c>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
-        <v>3</v>
-      </c>
+      <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr">
         <is>
@@ -11290,20 +11258,16 @@
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 4</t>
         </is>
       </c>
       <c r="R121" t="inlineStr"/>
       <c r="S121" t="inlineStr">
         <is>
-          <t>Ivan Dodig</t>
-        </is>
-      </c>
-      <c r="T121" t="inlineStr">
-        <is>
-          <t>Mate Pavic</t>
-        </is>
-      </c>
+          <t>Marin Cilic</t>
+        </is>
+      </c>
+      <c r="T121" t="inlineStr"/>
       <c r="U121" t="inlineStr">
         <is>
           <t>CROATIA</t>
@@ -11311,199 +11275,19 @@
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>02 Jan 1985</t>
-        </is>
-      </c>
-      <c r="W121" t="inlineStr"/>
-      <c r="X121" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="Y121" t="inlineStr">
-        <is>
-          <t>04 Jul 1993</t>
-        </is>
-      </c>
+          <t>28 Sep 1988</t>
+        </is>
+      </c>
+      <c r="W121" t="inlineStr">
+        <is>
+          <t>1082</t>
+        </is>
+      </c>
+      <c r="X121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr"/>
-      <c r="AA121" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="AA121" t="inlineStr"/>
       <c r="AB121" t="n">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 23 Nov - 25 Nov 2018</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>DAVIS CUP  FINAL</t>
-        </is>
-      </c>
-      <c r="F122" t="n">
-        <v>6</v>
-      </c>
-      <c r="G122" t="n">
-        <v>3</v>
-      </c>
-      <c r="H122" t="n">
-        <v>3</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>3</v>
-      </c>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="inlineStr"/>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr">
-        <is>
-          <t>PLAYED &amp; COMPLETED</t>
-        </is>
-      </c>
-      <c r="Q122" t="inlineStr">
-        <is>
-          <t>MATCH 4</t>
-        </is>
-      </c>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="inlineStr">
-        <is>
-          <t>Lucas Pouille</t>
-        </is>
-      </c>
-      <c r="T122" t="inlineStr"/>
-      <c r="U122" t="inlineStr">
-        <is>
-          <t>FRANCE</t>
-        </is>
-      </c>
-      <c r="V122" t="inlineStr">
-        <is>
-          <t>23 Feb 1994</t>
-        </is>
-      </c>
-      <c r="W122" t="inlineStr">
-        <is>
-          <t>147</t>
-        </is>
-      </c>
-      <c r="X122" t="inlineStr">
-        <is>
-          <t>291</t>
-        </is>
-      </c>
-      <c r="Y122" t="inlineStr"/>
-      <c r="Z122" t="inlineStr"/>
-      <c r="AA122" t="inlineStr"/>
-      <c r="AB122" t="n">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 23 Nov - 25 Nov 2018</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Stade Pierre Mauroy, Lille, France</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Clay - Red Clay, Indoor</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Dunlop Fort Clay Court</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>DAVIS CUP  FINAL</t>
-        </is>
-      </c>
-      <c r="F123" t="n">
-        <v>7</v>
-      </c>
-      <c r="G123" t="n">
-        <v>6</v>
-      </c>
-      <c r="H123" t="n">
-        <v>6</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>7</v>
-      </c>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="inlineStr"/>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr">
-        <is>
-          <t>PLAYED &amp; COMPLETED</t>
-        </is>
-      </c>
-      <c r="Q123" t="inlineStr">
-        <is>
-          <t>MATCH 4</t>
-        </is>
-      </c>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="inlineStr">
-        <is>
-          <t>Marin Cilic</t>
-        </is>
-      </c>
-      <c r="T123" t="inlineStr"/>
-      <c r="U123" t="inlineStr">
-        <is>
-          <t>CROATIA</t>
-        </is>
-      </c>
-      <c r="V123" t="inlineStr">
-        <is>
-          <t>28 Sep 1988</t>
-        </is>
-      </c>
-      <c r="W123" t="inlineStr">
-        <is>
-          <t>1082</t>
-        </is>
-      </c>
-      <c r="X123" t="inlineStr"/>
-      <c r="Y123" t="inlineStr"/>
-      <c r="Z123" t="inlineStr"/>
-      <c r="AA123" t="inlineStr"/>
-      <c r="AB123" t="n">
         <v>2018</v>
       </c>
     </row>
